--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_21_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_21_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>933469.7912944845</v>
+        <v>954192.8508377253</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3037189.074326953</v>
+        <v>4080045.863745267</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10454970.54644929</v>
+        <v>9973405.198246893</v>
       </c>
     </row>
     <row r="11">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -679,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,22 +712,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>193.4106714404658</v>
       </c>
       <c r="Y2" t="n">
-        <v>260.1478989722376</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>98.90246112264796</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>27.00971856836594</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -873,16 +873,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -904,7 +904,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>146.652568600271</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -955,10 +955,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>79.41818244097658</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1056,22 +1056,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>104.1375486291684</v>
+        <v>32.52207646038641</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -1110,19 +1110,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1138,7 +1138,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>92.47445699814307</v>
       </c>
       <c r="X8" t="n">
-        <v>364.541555420799</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1290,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>168.2133719456947</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>182.2754683558607</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1378,16 +1378,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>140.1924020163862</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>288.2822493900558</v>
       </c>
     </row>
     <row r="12">
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>17.25588147840212</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>131.3542190999263</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1621,10 +1621,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>188.0521489122174</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1672,10 +1672,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>226.0299399030555</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1706,7 +1706,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>15.07437110675937</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>81.26439500202909</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1782,10 +1782,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,10 +1818,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1861,7 +1861,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1897,22 +1897,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>167.5442597171374</v>
       </c>
       <c r="V17" t="n">
-        <v>241.2480189963547</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>88.90400954453293</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>150.2062474346973</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2089,10 +2089,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>410.9217256534534</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>243.2391485592458</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>190.1921129400379</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2238,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>14.43556387315422</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
@@ -2295,10 +2295,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>270.0697021486467</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2320,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2335,10 +2335,10 @@
         <v>410.4149465016521</v>
       </c>
       <c r="H23" t="n">
-        <v>289.4177123989346</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>22.03932652310334</v>
+        <v>22.03932652310328</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,16 +2368,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>97.63953186650193</v>
+        <v>97.63953186650191</v>
       </c>
       <c r="T23" t="n">
-        <v>124.1151324050206</v>
+        <v>201.6995444026096</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9546296267578</v>
+        <v>156.0007184430141</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2386,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2417,7 +2417,7 @@
         <v>86.97813000859298</v>
       </c>
       <c r="I24" t="n">
-        <v>9.481545899617487</v>
+        <v>9.481545899617473</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2481,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>43.88046116918344</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>130.9680924066099</v>
+        <v>165.7984845780255</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>78.71085334059829</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>185.8073935452402</v>
@@ -2557,13 +2557,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2575,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>20.4173786220703</v>
+        <v>22.03932652310328</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>97.63953186650191</v>
       </c>
       <c r="T26" t="n">
         <v>201.6995444026096</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9546296267578</v>
+        <v>135.035671557968</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2654,7 +2654,7 @@
         <v>86.97813000859298</v>
       </c>
       <c r="I27" t="n">
-        <v>9.481545899617487</v>
+        <v>9.481545899617473</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>1.826611015501844</v>
+        <v>43.88046116918344</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.7984845780255</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2803,7 +2803,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>247.0625986941313</v>
       </c>
       <c r="G29" t="n">
         <v>410.4149465016521</v>
@@ -2845,7 +2845,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>201.6995444026096</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>250.9546296267578</v>
@@ -2854,10 +2854,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>357.4590779456893</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2891,7 +2891,7 @@
         <v>86.97813000859298</v>
       </c>
       <c r="I30" t="n">
-        <v>9.481545899617487</v>
+        <v>9.481545899617473</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2955,16 +2955,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>95.21129725516774</v>
       </c>
       <c r="G31" t="n">
-        <v>151.767739713651</v>
+        <v>165.7984845780255</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>185.8073935452402</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>282.7436509343758</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3046,10 +3046,10 @@
         <v>410.4149465016521</v>
       </c>
       <c r="H32" t="n">
-        <v>289.4177123989346</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>22.03932652310328</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>97.63953186650191</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>90.23879524128316</v>
       </c>
       <c r="U32" t="n">
         <v>250.9546296267578</v>
@@ -3091,10 +3091,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3128,7 +3128,7 @@
         <v>86.97813000859298</v>
       </c>
       <c r="I33" t="n">
-        <v>9.481545899617487</v>
+        <v>9.481545899617473</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3192,16 +3192,16 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>134.2270780581593</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.7984845780255</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>43.88046116918378</v>
       </c>
       <c r="S34" t="n">
         <v>185.8073935452402</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>305.5116884190478</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3274,7 +3274,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>22.03932652310328</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.63953186650193</v>
+        <v>97.63953186650191</v>
       </c>
       <c r="T35" t="n">
         <v>201.6995444026096</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9546296267578</v>
+        <v>97.51503825709733</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3365,7 +3365,7 @@
         <v>86.97813000859298</v>
       </c>
       <c r="I36" t="n">
-        <v>9.481545899617487</v>
+        <v>9.481545899617473</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3429,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>114.5828153541059</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.7984845780255</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.7339007323149</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>78.71085334059828</v>
       </c>
       <c r="S37" t="n">
         <v>185.8073935452402</v>
@@ -3480,7 +3480,7 @@
         <v>218.5776571846122</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1994387321036</v>
+        <v>159.972978081841</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3517,13 +3517,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>410.4149465016521</v>
       </c>
       <c r="H38" t="n">
-        <v>130.9226410644638</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>22.03932652310337</v>
+        <v>22.03932652310326</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.63953186650195</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>201.6995444026096</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9546296267578</v>
+        <v>195.1545701235994</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3602,7 +3602,7 @@
         <v>86.97813000859298</v>
       </c>
       <c r="I39" t="n">
-        <v>9.481545899617501</v>
+        <v>9.481545899617458</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3669,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>81.80555554725127</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>78.71085334059826</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>185.8073935452401</v>
       </c>
       <c r="T40" t="n">
         <v>218.5776571846122</v>
@@ -3723,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>250.2442696445748</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3745,10 +3745,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>353.0610937196516</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3757,10 +3757,10 @@
         <v>410.4149465016521</v>
       </c>
       <c r="H41" t="n">
-        <v>102.4380646350731</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>22.03932652310337</v>
+        <v>22.03932652310328</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.63953186650195</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>201.6995444026096</v>
       </c>
       <c r="U41" t="n">
         <v>250.9546296267578</v>
@@ -3839,7 +3839,7 @@
         <v>86.97813000859298</v>
       </c>
       <c r="I42" t="n">
-        <v>9.481545899617501</v>
+        <v>9.481545899617473</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>96.38591235077674</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.7984845780255</v>
       </c>
       <c r="H43" t="n">
-        <v>142.7339007323149</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>78.71085334059828</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>185.8073935452402</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>196.3324240965069</v>
       </c>
       <c r="U43" t="n">
         <v>286.1994387321036</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3997,7 +3997,7 @@
         <v>289.4177123989346</v>
       </c>
       <c r="I44" t="n">
-        <v>22.03932652310337</v>
+        <v>22.03932652310334</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,19 +4027,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>97.63953186650195</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9546296267578</v>
+        <v>107.4364021272733</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>108.0832093514235</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4076,7 +4076,7 @@
         <v>86.97813000859298</v>
       </c>
       <c r="I45" t="n">
-        <v>9.481545899617501</v>
+        <v>9.481545899617487</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.7984845780255</v>
       </c>
       <c r="H46" t="n">
-        <v>142.7339007323149</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>140.7294080725703</v>
+        <v>185.8073935452402</v>
       </c>
       <c r="T46" t="n">
         <v>218.5776571846122</v>
@@ -4197,7 +4197,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>163.1566384071457</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2345.167438673965</v>
+        <v>1986.901740067214</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D2" t="n">
         <v>1617.939223126803</v>
@@ -4327,16 +4327,16 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001388</v>
@@ -4345,37 +4345,37 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U2" t="n">
-        <v>3325.605821609171</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V2" t="n">
-        <v>2994.5429342656</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W2" t="n">
-        <v>2994.5429342656</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X2" t="n">
-        <v>2994.5429342656</v>
+        <v>1986.901740067214</v>
       </c>
       <c r="Y2" t="n">
-        <v>2731.767278738087</v>
+        <v>1986.901740067214</v>
       </c>
     </row>
     <row r="3">
@@ -4400,22 +4400,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4427,10 +4427,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4464,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1021.570547268603</v>
+        <v>431.4421061205817</v>
       </c>
       <c r="C4" t="n">
-        <v>852.6343643406964</v>
+        <v>431.4421061205817</v>
       </c>
       <c r="D4" t="n">
-        <v>702.5177249283606</v>
+        <v>431.4421061205817</v>
       </c>
       <c r="E4" t="n">
-        <v>554.6046313459675</v>
+        <v>431.4421061205817</v>
       </c>
       <c r="F4" t="n">
-        <v>407.7146838480571</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G4" t="n">
-        <v>240.0118472227761</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H4" t="n">
-        <v>93.79466044063386</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4509,10 +4509,10 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S4" t="n">
         <v>1645.778206672847</v>
@@ -4521,19 +4521,19 @@
         <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1424.011591242373</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>1424.011591242373</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="W4" t="n">
-        <v>1424.011591242373</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="X4" t="n">
-        <v>1424.011591242373</v>
+        <v>652.2346852641118</v>
       </c>
       <c r="Y4" t="n">
-        <v>1203.219012098843</v>
+        <v>431.4421061205817</v>
       </c>
     </row>
     <row r="5">
@@ -4543,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2107.513093752762</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C5" t="n">
-        <v>1738.55057681235</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D5" t="n">
-        <v>1380.2848782056</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
@@ -4588,7 +4588,7 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4603,16 +4603,16 @@
         <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>2884.252265792696</v>
+        <v>3135.094766832249</v>
       </c>
       <c r="W5" t="n">
-        <v>2884.252265792696</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="X5" t="n">
-        <v>2884.252265792696</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="Y5" t="n">
-        <v>2494.112933816884</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="6">
@@ -4643,16 +4643,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4664,10 +4664,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>953.2602595377767</v>
+        <v>249.4793381277377</v>
       </c>
       <c r="C7" t="n">
-        <v>784.3240766098698</v>
+        <v>249.4793381277377</v>
       </c>
       <c r="D7" t="n">
-        <v>634.2074371975341</v>
+        <v>99.36269871540202</v>
       </c>
       <c r="E7" t="n">
-        <v>486.294343615141</v>
+        <v>99.36269871540202</v>
       </c>
       <c r="F7" t="n">
-        <v>339.4043961172306</v>
+        <v>99.36269871540202</v>
       </c>
       <c r="G7" t="n">
-        <v>171.7015594919496</v>
+        <v>99.36269871540202</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4746,10 +4746,10 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S7" t="n">
         <v>1645.778206672847</v>
@@ -4758,19 +4758,19 @@
         <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V7" t="n">
-        <v>1134.908724368016</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="W7" t="n">
-        <v>1134.908724368016</v>
+        <v>879.9099329995249</v>
       </c>
       <c r="X7" t="n">
-        <v>1134.908724368016</v>
+        <v>651.9203821015076</v>
       </c>
       <c r="Y7" t="n">
-        <v>1134.908724368016</v>
+        <v>431.1278029579775</v>
       </c>
     </row>
     <row r="8">
@@ -4780,31 +4780,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1243.280836875046</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C8" t="n">
-        <v>874.3183199346347</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>874.3183199346347</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>488.5300673363904</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>77.54416254678287</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4813,13 +4813,13 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
         <v>3018.302393296686</v>
@@ -4831,25 +4831,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883007</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>2741.012457539437</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W8" t="n">
-        <v>2388.243802269322</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="X8" t="n">
-        <v>2020.02000891498</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="Y8" t="n">
-        <v>1629.880676939168</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="9">
@@ -4874,19 +4874,19 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
         <v>765.151745215813</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>385.5649387724261</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="C10" t="n">
-        <v>216.6287558445192</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218342</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218342</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
         <v>66.51211643218342</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1667.551593931178</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1667.551593931178</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1378.448727056821</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V10" t="n">
-        <v>1123.764238850934</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W10" t="n">
-        <v>834.3470688139736</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X10" t="n">
-        <v>606.3575179159562</v>
+        <v>909.9733882683989</v>
       </c>
       <c r="Y10" t="n">
-        <v>385.5649387724261</v>
+        <v>689.1808091248688</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1506.396382525582</v>
+        <v>1590.514489367197</v>
       </c>
       <c r="C11" t="n">
-        <v>1137.43386558517</v>
+        <v>1221.551972426786</v>
       </c>
       <c r="D11" t="n">
-        <v>779.1681669784198</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E11" t="n">
-        <v>779.1681669784198</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F11" t="n">
-        <v>779.1681669784198</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G11" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H11" t="n">
         <v>66.51211643218342</v>
@@ -5041,16 +5041,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
         <v>2120.555556060171</v>
@@ -5068,25 +5068,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T11" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U11" t="n">
-        <v>2755.806928794324</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V11" t="n">
-        <v>2424.744041450754</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W11" t="n">
-        <v>2424.744041450754</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X11" t="n">
-        <v>2283.135554565515</v>
+        <v>2268.308520734406</v>
       </c>
       <c r="Y11" t="n">
-        <v>1892.996222589704</v>
+        <v>1977.114329431319</v>
       </c>
     </row>
     <row r="12">
@@ -5120,13 +5120,13 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>231.8553933260938</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C13" t="n">
-        <v>231.8553933260938</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D13" t="n">
-        <v>231.8553933260938</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E13" t="n">
-        <v>83.94229974370072</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F13" t="n">
-        <v>83.94229974370072</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G13" t="n">
-        <v>83.94229974370072</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H13" t="n">
-        <v>83.94229974370072</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I13" t="n">
         <v>66.51211643218342</v>
@@ -5226,25 +5226,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S13" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T13" t="n">
-        <v>1513.842048484845</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U13" t="n">
-        <v>1224.739181610489</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V13" t="n">
-        <v>970.0546934046018</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W13" t="n">
-        <v>680.6375233676413</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X13" t="n">
-        <v>452.6479724696239</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y13" t="n">
-        <v>231.8553933260938</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2303.170539913434</v>
+        <v>1422.200456328343</v>
       </c>
       <c r="C14" t="n">
-        <v>1934.208022973022</v>
+        <v>1053.237939387932</v>
       </c>
       <c r="D14" t="n">
-        <v>1575.942324366272</v>
+        <v>1053.237939387932</v>
       </c>
       <c r="E14" t="n">
-        <v>1190.154071768027</v>
+        <v>667.4496867896873</v>
       </c>
       <c r="F14" t="n">
-        <v>779.1681669784198</v>
+        <v>256.4637820000798</v>
       </c>
       <c r="G14" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T14" t="n">
-        <v>3215.315153136266</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U14" t="n">
-        <v>3215.315153136266</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V14" t="n">
-        <v>2884.252265792695</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W14" t="n">
-        <v>2531.483610522581</v>
+        <v>2182.266054653545</v>
       </c>
       <c r="X14" t="n">
-        <v>2531.483610522581</v>
+        <v>1808.800296392465</v>
       </c>
       <c r="Y14" t="n">
-        <v>2303.170539913434</v>
+        <v>1808.800296392465</v>
       </c>
     </row>
     <row r="15">
@@ -5348,22 +5348,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031473</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5412,43 +5412,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>216.6287558445192</v>
+        <v>561.0764108006842</v>
       </c>
       <c r="C16" t="n">
-        <v>216.6287558445192</v>
+        <v>392.1402278727774</v>
       </c>
       <c r="D16" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="E16" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="F16" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G16" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L16" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M16" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N16" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O16" t="n">
         <v>1617.076751502319</v>
@@ -5463,25 +5463,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S16" t="n">
-        <v>1735.60866391532</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T16" t="n">
-        <v>1513.842048484846</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U16" t="n">
-        <v>1224.739181610489</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="V16" t="n">
-        <v>970.0546934046023</v>
+        <v>1480.924175709432</v>
       </c>
       <c r="W16" t="n">
-        <v>680.6375233676417</v>
+        <v>1191.507005672471</v>
       </c>
       <c r="X16" t="n">
-        <v>452.6479724696244</v>
+        <v>963.5174547744541</v>
       </c>
       <c r="Y16" t="n">
-        <v>231.8553933260943</v>
+        <v>742.724875630924</v>
       </c>
     </row>
     <row r="17">
@@ -5491,52 +5491,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2005.586939522201</v>
+        <v>2303.170539913434</v>
       </c>
       <c r="C17" t="n">
-        <v>1636.624422581789</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D17" t="n">
-        <v>1278.358723975039</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E17" t="n">
-        <v>892.5704713767946</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F17" t="n">
-        <v>481.5845665871869</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G17" t="n">
-        <v>66.51211643218342</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R17" t="n">
         <v>3325.605821609171</v>
@@ -5545,22 +5545,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T17" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U17" t="n">
-        <v>3009.337405520488</v>
+        <v>3046.07852715936</v>
       </c>
       <c r="V17" t="n">
-        <v>2765.652537847403</v>
+        <v>3046.07852715936</v>
       </c>
       <c r="W17" t="n">
-        <v>2765.652537847403</v>
+        <v>2693.309871889246</v>
       </c>
       <c r="X17" t="n">
-        <v>2392.186779586323</v>
+        <v>2693.309871889246</v>
       </c>
       <c r="Y17" t="n">
-        <v>2392.186779586323</v>
+        <v>2303.170539913434</v>
       </c>
     </row>
     <row r="18">
@@ -5585,16 +5585,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K18" t="n">
         <v>398.4535849031479</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>452.6479724696239</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C19" t="n">
-        <v>452.6479724696239</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D19" t="n">
-        <v>302.5313330572882</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E19" t="n">
-        <v>302.5313330572882</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F19" t="n">
-        <v>302.5313330572882</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G19" t="n">
-        <v>212.7293032143256</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J19" t="n">
         <v>111.634748879119</v>
@@ -5697,28 +5697,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S19" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T19" t="n">
-        <v>1513.842048484845</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U19" t="n">
-        <v>1224.739181610489</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="V19" t="n">
-        <v>970.0546934046018</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="W19" t="n">
-        <v>680.6375233676413</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="X19" t="n">
-        <v>452.6479724696239</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y19" t="n">
-        <v>452.6479724696239</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="20">
@@ -5728,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1506.396382525582</v>
+        <v>2303.170539913434</v>
       </c>
       <c r="C20" t="n">
-        <v>1137.43386558517</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D20" t="n">
-        <v>779.1681669784198</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E20" t="n">
-        <v>779.1681669784198</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F20" t="n">
         <v>779.1681669784198</v>
@@ -5746,58 +5746,58 @@
         <v>364.0957168234162</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R20" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T20" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U20" t="n">
-        <v>2755.806928794324</v>
+        <v>3079.909711953368</v>
       </c>
       <c r="V20" t="n">
-        <v>2424.744041450754</v>
+        <v>3079.909711953368</v>
       </c>
       <c r="W20" t="n">
-        <v>2071.975386180639</v>
+        <v>3079.909711953368</v>
       </c>
       <c r="X20" t="n">
-        <v>1698.50962791956</v>
+        <v>3079.909711953368</v>
       </c>
       <c r="Y20" t="n">
-        <v>1506.396382525582</v>
+        <v>2689.770379977556</v>
       </c>
     </row>
     <row r="21">
@@ -5822,16 +5822,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K21" t="n">
         <v>398.4535849031479</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>396.7094242895083</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C22" t="n">
-        <v>396.7094242895083</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D22" t="n">
-        <v>382.1280466398576</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E22" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F22" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J22" t="n">
         <v>111.634748879119</v>
@@ -5934,28 +5934,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R22" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S22" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T22" t="n">
-        <v>1424.011591242373</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U22" t="n">
-        <v>1134.908724368016</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V22" t="n">
-        <v>1134.908724368016</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W22" t="n">
-        <v>845.4915543310558</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X22" t="n">
-        <v>617.5020034330385</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y22" t="n">
-        <v>396.7094242895083</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="23">
@@ -5965,46 +5965,46 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1963.074114337889</v>
+        <v>2039.695507643014</v>
       </c>
       <c r="C23" t="n">
-        <v>1963.074114337889</v>
+        <v>1670.732990702602</v>
       </c>
       <c r="D23" t="n">
-        <v>1604.808415731139</v>
+        <v>1312.467292095851</v>
       </c>
       <c r="E23" t="n">
-        <v>1219.020163132895</v>
+        <v>926.6790394976072</v>
       </c>
       <c r="F23" t="n">
-        <v>808.0342583432871</v>
+        <v>515.6931347079995</v>
       </c>
       <c r="G23" t="n">
-        <v>393.4737063214163</v>
+        <v>101.1325826861287</v>
       </c>
       <c r="H23" t="n">
-        <v>101.1325826861288</v>
+        <v>101.1325826861287</v>
       </c>
       <c r="I23" t="n">
         <v>78.87063670319611</v>
       </c>
       <c r="J23" t="n">
-        <v>310.3318922270723</v>
+        <v>310.331892227072</v>
       </c>
       <c r="K23" t="n">
-        <v>707.9708323625641</v>
+        <v>707.9708323625634</v>
       </c>
       <c r="L23" t="n">
-        <v>1238.17886109889</v>
+        <v>1238.178861098889</v>
       </c>
       <c r="M23" t="n">
-        <v>1859.80689066217</v>
+        <v>1859.806890662169</v>
       </c>
       <c r="N23" t="n">
-        <v>2496.107320014714</v>
+        <v>2496.107320014713</v>
       </c>
       <c r="O23" t="n">
-        <v>3083.612510848995</v>
+        <v>3083.612510848994</v>
       </c>
       <c r="P23" t="n">
         <v>3550.533597954121</v>
@@ -6019,22 +6019,22 @@
         <v>3844.906045395662</v>
       </c>
       <c r="T23" t="n">
-        <v>3719.53722478453</v>
+        <v>3641.169131857672</v>
       </c>
       <c r="U23" t="n">
-        <v>3466.047699909017</v>
+        <v>3483.5926485819</v>
       </c>
       <c r="V23" t="n">
-        <v>3466.047699909017</v>
+        <v>3152.52976123833</v>
       </c>
       <c r="W23" t="n">
-        <v>3113.279044638903</v>
+        <v>2799.761105968215</v>
       </c>
       <c r="X23" t="n">
-        <v>2739.813286377823</v>
+        <v>2426.295347707136</v>
       </c>
       <c r="Y23" t="n">
-        <v>2349.673954402011</v>
+        <v>2426.295347707136</v>
       </c>
     </row>
     <row r="24">
@@ -6071,16 +6071,16 @@
         <v>197.909527867881</v>
       </c>
       <c r="K24" t="n">
-        <v>479.5207778288763</v>
+        <v>479.5207778288765</v>
       </c>
       <c r="L24" t="n">
-        <v>904.5043975433666</v>
+        <v>904.504397543367</v>
       </c>
       <c r="M24" t="n">
         <v>1419.797104740098</v>
       </c>
       <c r="N24" t="n">
-        <v>1963.136721510769</v>
+        <v>1963.13672151077</v>
       </c>
       <c r="O24" t="n">
         <v>2437.96652564695</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>211.1616391341152</v>
+        <v>290.6675515993668</v>
       </c>
       <c r="C25" t="n">
-        <v>211.1616391341152</v>
+        <v>290.6675515993668</v>
       </c>
       <c r="D25" t="n">
-        <v>211.1616391341152</v>
+        <v>246.3438534486764</v>
       </c>
       <c r="E25" t="n">
-        <v>211.1616391341152</v>
+        <v>246.3438534486764</v>
       </c>
       <c r="F25" t="n">
-        <v>211.1616391341152</v>
+        <v>246.3438534486764</v>
       </c>
       <c r="G25" t="n">
         <v>78.87063670319611</v>
@@ -6147,13 +6147,13 @@
         <v>78.87063670319611</v>
       </c>
       <c r="J25" t="n">
-        <v>139.9043355545542</v>
+        <v>139.9043355545543</v>
       </c>
       <c r="K25" t="n">
-        <v>370.038288292362</v>
+        <v>370.0382882923622</v>
       </c>
       <c r="L25" t="n">
-        <v>720.0569500529228</v>
+        <v>720.056950052923</v>
       </c>
       <c r="M25" t="n">
         <v>1099.491675736239</v>
@@ -6162,37 +6162,37 @@
         <v>1475.338908142971</v>
       </c>
       <c r="O25" t="n">
-        <v>1806.478364393455</v>
+        <v>1806.478364393456</v>
       </c>
       <c r="P25" t="n">
         <v>2066.304693095655</v>
       </c>
       <c r="Q25" t="n">
-        <v>2162.759895079613</v>
+        <v>2162.759895079614</v>
       </c>
       <c r="R25" t="n">
-        <v>2083.253982614362</v>
+        <v>2162.759895079614</v>
       </c>
       <c r="S25" t="n">
-        <v>1895.569746710079</v>
+        <v>1975.075659175331</v>
       </c>
       <c r="T25" t="n">
-        <v>1674.78423440239</v>
+        <v>1754.290146867642</v>
       </c>
       <c r="U25" t="n">
-        <v>1385.69389224875</v>
+        <v>1465.199804714002</v>
       </c>
       <c r="V25" t="n">
-        <v>1131.009404042863</v>
+        <v>1210.515316508115</v>
       </c>
       <c r="W25" t="n">
-        <v>841.5922340059024</v>
+        <v>921.098146471154</v>
       </c>
       <c r="X25" t="n">
-        <v>613.602683107885</v>
+        <v>693.1085955731367</v>
       </c>
       <c r="Y25" t="n">
-        <v>392.8101039643549</v>
+        <v>472.3160164296065</v>
       </c>
     </row>
     <row r="26">
@@ -6202,40 +6202,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1652.268923831605</v>
+        <v>1670.732990702602</v>
       </c>
       <c r="C26" t="n">
-        <v>1283.306406891193</v>
+        <v>1670.732990702602</v>
       </c>
       <c r="D26" t="n">
-        <v>925.0407082844424</v>
+        <v>1312.467292095851</v>
       </c>
       <c r="E26" t="n">
-        <v>925.0407082844424</v>
+        <v>926.6790394976072</v>
       </c>
       <c r="F26" t="n">
-        <v>514.0548034948349</v>
+        <v>515.6931347079995</v>
       </c>
       <c r="G26" t="n">
-        <v>99.49425147296409</v>
+        <v>101.1325826861287</v>
       </c>
       <c r="H26" t="n">
-        <v>99.49425147296409</v>
+        <v>101.1325826861287</v>
       </c>
       <c r="I26" t="n">
         <v>78.87063670319611</v>
       </c>
       <c r="J26" t="n">
-        <v>310.3318922270719</v>
+        <v>310.331892227072</v>
       </c>
       <c r="K26" t="n">
-        <v>707.9708323625632</v>
+        <v>707.9708323625634</v>
       </c>
       <c r="L26" t="n">
         <v>1238.178861098889</v>
       </c>
       <c r="M26" t="n">
-        <v>1859.80689066217</v>
+        <v>1859.806890662169</v>
       </c>
       <c r="N26" t="n">
         <v>2496.107320014713</v>
@@ -6244,7 +6244,7 @@
         <v>3083.612510848994</v>
       </c>
       <c r="P26" t="n">
-        <v>3550.53359795412</v>
+        <v>3550.533597954121</v>
       </c>
       <c r="Q26" t="n">
         <v>3852.999142367603</v>
@@ -6253,25 +6253,25 @@
         <v>3943.531835159805</v>
       </c>
       <c r="S26" t="n">
-        <v>3943.531835159805</v>
+        <v>3844.906045395662</v>
       </c>
       <c r="T26" t="n">
-        <v>3739.794921621816</v>
+        <v>3641.169131857672</v>
       </c>
       <c r="U26" t="n">
-        <v>3486.305396746303</v>
+        <v>3504.769463617301</v>
       </c>
       <c r="V26" t="n">
-        <v>3155.242509402732</v>
+        <v>3173.70657627373</v>
       </c>
       <c r="W26" t="n">
-        <v>2802.473854132618</v>
+        <v>2820.937921003615</v>
       </c>
       <c r="X26" t="n">
-        <v>2429.008095871538</v>
+        <v>2447.472162742536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2038.868763895726</v>
+        <v>2057.332830766724</v>
       </c>
     </row>
     <row r="27">
@@ -6308,16 +6308,16 @@
         <v>197.909527867881</v>
       </c>
       <c r="K27" t="n">
-        <v>479.5207778288763</v>
+        <v>479.5207778288765</v>
       </c>
       <c r="L27" t="n">
-        <v>904.5043975433666</v>
+        <v>904.504397543367</v>
       </c>
       <c r="M27" t="n">
         <v>1419.797104740098</v>
       </c>
       <c r="N27" t="n">
-        <v>1963.136721510769</v>
+        <v>1963.13672151077</v>
       </c>
       <c r="O27" t="n">
         <v>2437.96652564695</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>693.1085955731357</v>
+        <v>290.6675515993668</v>
       </c>
       <c r="C28" t="n">
-        <v>691.2635339413157</v>
+        <v>246.3438534486764</v>
       </c>
       <c r="D28" t="n">
-        <v>541.1468945289799</v>
+        <v>246.3438534486764</v>
       </c>
       <c r="E28" t="n">
-        <v>393.2338009465868</v>
+        <v>246.3438534486764</v>
       </c>
       <c r="F28" t="n">
         <v>246.3438534486764</v>
@@ -6384,13 +6384,13 @@
         <v>78.87063670319611</v>
       </c>
       <c r="J28" t="n">
-        <v>139.9043355545542</v>
+        <v>139.9043355545543</v>
       </c>
       <c r="K28" t="n">
-        <v>370.038288292362</v>
+        <v>370.0382882923622</v>
       </c>
       <c r="L28" t="n">
-        <v>720.0569500529228</v>
+        <v>720.056950052923</v>
       </c>
       <c r="M28" t="n">
         <v>1099.491675736239</v>
@@ -6399,37 +6399,37 @@
         <v>1475.338908142971</v>
       </c>
       <c r="O28" t="n">
-        <v>1806.478364393455</v>
+        <v>1806.478364393456</v>
       </c>
       <c r="P28" t="n">
         <v>2066.304693095655</v>
       </c>
       <c r="Q28" t="n">
-        <v>2162.759895079613</v>
+        <v>2162.759895079614</v>
       </c>
       <c r="R28" t="n">
-        <v>2162.759895079613</v>
+        <v>2162.759895079614</v>
       </c>
       <c r="S28" t="n">
-        <v>1975.07565917533</v>
+        <v>1975.075659175331</v>
       </c>
       <c r="T28" t="n">
-        <v>1754.290146867641</v>
+        <v>1754.290146867642</v>
       </c>
       <c r="U28" t="n">
-        <v>1465.199804714001</v>
+        <v>1465.199804714002</v>
       </c>
       <c r="V28" t="n">
-        <v>1210.515316508114</v>
+        <v>1210.515316508115</v>
       </c>
       <c r="W28" t="n">
-        <v>921.0981464711531</v>
+        <v>921.098146471154</v>
       </c>
       <c r="X28" t="n">
-        <v>693.1085955731357</v>
+        <v>693.1085955731367</v>
       </c>
       <c r="Y28" t="n">
-        <v>693.1085955731357</v>
+        <v>472.3160164296065</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2017.433561660081</v>
+        <v>1856.005837369596</v>
       </c>
       <c r="C29" t="n">
-        <v>1648.471044719669</v>
+        <v>1487.043320429184</v>
       </c>
       <c r="D29" t="n">
-        <v>1290.205346112919</v>
+        <v>1128.777621822434</v>
       </c>
       <c r="E29" t="n">
-        <v>904.4170935146744</v>
+        <v>742.9893692241894</v>
       </c>
       <c r="F29" t="n">
         <v>493.4311887250669</v>
       </c>
       <c r="G29" t="n">
-        <v>78.87063670319608</v>
+        <v>78.87063670319614</v>
       </c>
       <c r="H29" t="n">
-        <v>78.87063670319608</v>
+        <v>78.87063670319614</v>
       </c>
       <c r="I29" t="n">
-        <v>78.87063670319608</v>
+        <v>78.87063670319614</v>
       </c>
       <c r="J29" t="n">
-        <v>310.3318922270718</v>
+        <v>310.3318922270728</v>
       </c>
       <c r="K29" t="n">
-        <v>707.9708323625631</v>
+        <v>707.970832362565</v>
       </c>
       <c r="L29" t="n">
-        <v>1238.178861098888</v>
+        <v>1238.178861098891</v>
       </c>
       <c r="M29" t="n">
-        <v>1859.806890662169</v>
+        <v>1859.806890662171</v>
       </c>
       <c r="N29" t="n">
-        <v>2496.107320014713</v>
+        <v>2496.107320014715</v>
       </c>
       <c r="O29" t="n">
-        <v>3083.612510848993</v>
+        <v>3083.612510848995</v>
       </c>
       <c r="P29" t="n">
-        <v>3550.533597954119</v>
+        <v>3550.533597954122</v>
       </c>
       <c r="Q29" t="n">
-        <v>3852.999142367602</v>
+        <v>3852.999142367605</v>
       </c>
       <c r="R29" t="n">
-        <v>3943.531835159804</v>
+        <v>3943.531835159807</v>
       </c>
       <c r="S29" t="n">
-        <v>3943.531835159804</v>
+        <v>3943.531835159807</v>
       </c>
       <c r="T29" t="n">
-        <v>3739.794921621814</v>
+        <v>3943.531835159807</v>
       </c>
       <c r="U29" t="n">
-        <v>3486.305396746302</v>
+        <v>3690.042310284294</v>
       </c>
       <c r="V29" t="n">
-        <v>3155.242509402731</v>
+        <v>3358.979422940723</v>
       </c>
       <c r="W29" t="n">
-        <v>3155.242509402731</v>
+        <v>3006.210767670609</v>
       </c>
       <c r="X29" t="n">
-        <v>2794.172733700014</v>
+        <v>2632.745009409529</v>
       </c>
       <c r="Y29" t="n">
-        <v>2404.033401724203</v>
+        <v>2242.605677433718</v>
       </c>
     </row>
     <row r="30">
@@ -6536,25 +6536,25 @@
         <v>176.3046527720956</v>
       </c>
       <c r="H30" t="n">
-        <v>88.44795579371879</v>
+        <v>88.44795579371885</v>
       </c>
       <c r="I30" t="n">
-        <v>78.87063670319608</v>
+        <v>78.87063670319614</v>
       </c>
       <c r="J30" t="n">
-        <v>197.9095278678809</v>
+        <v>197.909527867881</v>
       </c>
       <c r="K30" t="n">
-        <v>479.5207778288762</v>
+        <v>479.5207778288765</v>
       </c>
       <c r="L30" t="n">
-        <v>904.5043975433666</v>
+        <v>904.504397543367</v>
       </c>
       <c r="M30" t="n">
         <v>1419.797104740098</v>
       </c>
       <c r="N30" t="n">
-        <v>1963.136721510769</v>
+        <v>1963.13672151077</v>
       </c>
       <c r="O30" t="n">
         <v>2437.96652564695</v>
@@ -6597,37 +6597,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>699.1372998113379</v>
+        <v>511.4530639070558</v>
       </c>
       <c r="C31" t="n">
-        <v>530.201116883431</v>
+        <v>342.5168809791489</v>
       </c>
       <c r="D31" t="n">
-        <v>380.0844774710953</v>
+        <v>342.5168809791489</v>
       </c>
       <c r="E31" t="n">
-        <v>232.1713838887022</v>
+        <v>342.5168809791489</v>
       </c>
       <c r="F31" t="n">
-        <v>232.1713838887022</v>
+        <v>246.3438534486765</v>
       </c>
       <c r="G31" t="n">
-        <v>78.87063670319608</v>
+        <v>78.87063670319614</v>
       </c>
       <c r="H31" t="n">
-        <v>78.87063670319608</v>
+        <v>78.87063670319614</v>
       </c>
       <c r="I31" t="n">
-        <v>78.87063670319608</v>
+        <v>78.87063670319614</v>
       </c>
       <c r="J31" t="n">
-        <v>139.9043355545542</v>
+        <v>139.9043355545543</v>
       </c>
       <c r="K31" t="n">
-        <v>370.038288292362</v>
+        <v>370.0382882923622</v>
       </c>
       <c r="L31" t="n">
-        <v>720.0569500529228</v>
+        <v>720.056950052923</v>
       </c>
       <c r="M31" t="n">
         <v>1099.491675736239</v>
@@ -6636,37 +6636,37 @@
         <v>1475.338908142971</v>
       </c>
       <c r="O31" t="n">
-        <v>1806.478364393455</v>
+        <v>1806.478364393456</v>
       </c>
       <c r="P31" t="n">
         <v>2066.304693095655</v>
       </c>
       <c r="Q31" t="n">
-        <v>2162.759895079613</v>
+        <v>2162.759895079614</v>
       </c>
       <c r="R31" t="n">
-        <v>2162.759895079613</v>
+        <v>2162.759895079614</v>
       </c>
       <c r="S31" t="n">
-        <v>2162.759895079613</v>
+        <v>1975.075659175331</v>
       </c>
       <c r="T31" t="n">
-        <v>2162.759895079613</v>
+        <v>1975.075659175331</v>
       </c>
       <c r="U31" t="n">
-        <v>1873.669552925973</v>
+        <v>1685.985317021691</v>
       </c>
       <c r="V31" t="n">
-        <v>1618.985064720086</v>
+        <v>1431.300828815804</v>
       </c>
       <c r="W31" t="n">
-        <v>1329.567894683125</v>
+        <v>1141.883658778843</v>
       </c>
       <c r="X31" t="n">
-        <v>1101.578343785108</v>
+        <v>913.8941078808257</v>
       </c>
       <c r="Y31" t="n">
-        <v>880.7857646415777</v>
+        <v>693.1015287372956</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2309.774685295368</v>
+        <v>2039.695507643014</v>
       </c>
       <c r="C32" t="n">
-        <v>1940.812168354957</v>
+        <v>1670.732990702602</v>
       </c>
       <c r="D32" t="n">
-        <v>1582.546469748206</v>
+        <v>1312.467292095851</v>
       </c>
       <c r="E32" t="n">
-        <v>1196.758217149962</v>
+        <v>926.6790394976072</v>
       </c>
       <c r="F32" t="n">
-        <v>785.7723123603544</v>
+        <v>515.6931347079995</v>
       </c>
       <c r="G32" t="n">
-        <v>371.2117603384836</v>
+        <v>101.1325826861288</v>
       </c>
       <c r="H32" t="n">
-        <v>78.87063670319608</v>
+        <v>101.1325826861288</v>
       </c>
       <c r="I32" t="n">
-        <v>78.87063670319608</v>
+        <v>78.87063670319614</v>
       </c>
       <c r="J32" t="n">
-        <v>310.3318922270718</v>
+        <v>310.331892227071</v>
       </c>
       <c r="K32" t="n">
-        <v>707.9708323625631</v>
+        <v>707.9708323625625</v>
       </c>
       <c r="L32" t="n">
-        <v>1238.178861098888</v>
+        <v>1238.178861098889</v>
       </c>
       <c r="M32" t="n">
-        <v>1859.806890662169</v>
+        <v>1859.80689066217</v>
       </c>
       <c r="N32" t="n">
         <v>2496.107320014713</v>
       </c>
       <c r="O32" t="n">
-        <v>3083.612510848993</v>
+        <v>3083.612510848996</v>
       </c>
       <c r="P32" t="n">
-        <v>3550.533597954119</v>
+        <v>3550.533597954122</v>
       </c>
       <c r="Q32" t="n">
-        <v>3852.999142367602</v>
+        <v>3852.999142367605</v>
       </c>
       <c r="R32" t="n">
-        <v>3943.531835159804</v>
+        <v>3943.531835159807</v>
       </c>
       <c r="S32" t="n">
-        <v>3943.531835159804</v>
+        <v>3844.906045395664</v>
       </c>
       <c r="T32" t="n">
-        <v>3943.531835159804</v>
+        <v>3753.755747172145</v>
       </c>
       <c r="U32" t="n">
-        <v>3690.042310284291</v>
+        <v>3500.266222296632</v>
       </c>
       <c r="V32" t="n">
-        <v>3358.97942294072</v>
+        <v>3169.203334953062</v>
       </c>
       <c r="W32" t="n">
-        <v>3358.97942294072</v>
+        <v>2816.434679682947</v>
       </c>
       <c r="X32" t="n">
-        <v>2985.51366467964</v>
+        <v>2816.434679682947</v>
       </c>
       <c r="Y32" t="n">
-        <v>2595.374332703829</v>
+        <v>2426.295347707136</v>
       </c>
     </row>
     <row r="33">
@@ -6773,25 +6773,25 @@
         <v>176.3046527720956</v>
       </c>
       <c r="H33" t="n">
-        <v>88.44795579371879</v>
+        <v>88.44795579371885</v>
       </c>
       <c r="I33" t="n">
-        <v>78.87063670319608</v>
+        <v>78.87063670319614</v>
       </c>
       <c r="J33" t="n">
-        <v>197.9095278678809</v>
+        <v>197.909527867881</v>
       </c>
       <c r="K33" t="n">
-        <v>479.5207778288762</v>
+        <v>479.5207778288765</v>
       </c>
       <c r="L33" t="n">
-        <v>904.5043975433666</v>
+        <v>904.504397543367</v>
       </c>
       <c r="M33" t="n">
         <v>1419.797104740098</v>
       </c>
       <c r="N33" t="n">
-        <v>1963.136721510769</v>
+        <v>1963.13672151077</v>
       </c>
       <c r="O33" t="n">
         <v>2437.96652564695</v>
@@ -6834,37 +6834,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>511.460130742896</v>
+        <v>246.3438534486765</v>
       </c>
       <c r="C34" t="n">
-        <v>511.460130742896</v>
+        <v>246.3438534486765</v>
       </c>
       <c r="D34" t="n">
-        <v>361.3434913305603</v>
+        <v>246.3438534486765</v>
       </c>
       <c r="E34" t="n">
-        <v>225.7605842011064</v>
+        <v>246.3438534486765</v>
       </c>
       <c r="F34" t="n">
-        <v>78.87063670319608</v>
+        <v>246.3438534486765</v>
       </c>
       <c r="G34" t="n">
-        <v>78.87063670319608</v>
+        <v>78.87063670319614</v>
       </c>
       <c r="H34" t="n">
-        <v>78.87063670319608</v>
+        <v>78.87063670319614</v>
       </c>
       <c r="I34" t="n">
-        <v>78.87063670319608</v>
+        <v>78.87063670319614</v>
       </c>
       <c r="J34" t="n">
-        <v>139.9043355545542</v>
+        <v>139.9043355545543</v>
       </c>
       <c r="K34" t="n">
-        <v>370.038288292362</v>
+        <v>370.0382882923622</v>
       </c>
       <c r="L34" t="n">
-        <v>720.0569500529228</v>
+        <v>720.056950052923</v>
       </c>
       <c r="M34" t="n">
         <v>1099.491675736239</v>
@@ -6873,37 +6873,37 @@
         <v>1475.338908142971</v>
       </c>
       <c r="O34" t="n">
-        <v>1806.478364393455</v>
+        <v>1806.478364393456</v>
       </c>
       <c r="P34" t="n">
         <v>2066.304693095655</v>
       </c>
       <c r="Q34" t="n">
-        <v>2162.759895079613</v>
+        <v>2162.759895079614</v>
       </c>
       <c r="R34" t="n">
-        <v>2162.759895079613</v>
+        <v>2118.436196928923</v>
       </c>
       <c r="S34" t="n">
-        <v>1975.07565917533</v>
+        <v>1930.75196102464</v>
       </c>
       <c r="T34" t="n">
-        <v>1754.290146867641</v>
+        <v>1709.966448716951</v>
       </c>
       <c r="U34" t="n">
-        <v>1465.199804714001</v>
+        <v>1420.876106563311</v>
       </c>
       <c r="V34" t="n">
-        <v>1210.515316508114</v>
+        <v>1166.191618357424</v>
       </c>
       <c r="W34" t="n">
-        <v>921.0981464711531</v>
+        <v>876.7744483204636</v>
       </c>
       <c r="X34" t="n">
-        <v>693.1085955731357</v>
+        <v>648.7848974224463</v>
       </c>
       <c r="Y34" t="n">
-        <v>693.1085955731357</v>
+        <v>427.9923182789162</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1631.645309061837</v>
+        <v>2039.695507643014</v>
       </c>
       <c r="C35" t="n">
-        <v>1262.682792121425</v>
+        <v>1670.732990702602</v>
       </c>
       <c r="D35" t="n">
-        <v>904.4170935146744</v>
+        <v>1312.467292095851</v>
       </c>
       <c r="E35" t="n">
-        <v>904.4170935146744</v>
+        <v>926.6790394976072</v>
       </c>
       <c r="F35" t="n">
-        <v>493.4311887250669</v>
+        <v>515.6931347079995</v>
       </c>
       <c r="G35" t="n">
-        <v>78.87063670319608</v>
+        <v>101.1325826861288</v>
       </c>
       <c r="H35" t="n">
-        <v>78.87063670319608</v>
+        <v>101.1325826861288</v>
       </c>
       <c r="I35" t="n">
-        <v>78.87063670319608</v>
+        <v>78.87063670319614</v>
       </c>
       <c r="J35" t="n">
-        <v>310.331892227071</v>
+        <v>310.3318922270728</v>
       </c>
       <c r="K35" t="n">
-        <v>707.9708323625623</v>
+        <v>707.9708323625641</v>
       </c>
       <c r="L35" t="n">
-        <v>1238.178861098888</v>
+        <v>1238.178861098891</v>
       </c>
       <c r="M35" t="n">
-        <v>1859.806890662169</v>
+        <v>1859.806890662171</v>
       </c>
       <c r="N35" t="n">
-        <v>2496.107320014713</v>
+        <v>2496.107320014715</v>
       </c>
       <c r="O35" t="n">
-        <v>3083.612510848993</v>
+        <v>3083.612510848995</v>
       </c>
       <c r="P35" t="n">
-        <v>3550.533597954119</v>
+        <v>3550.533597954122</v>
       </c>
       <c r="Q35" t="n">
-        <v>3852.999142367602</v>
+        <v>3852.999142367605</v>
       </c>
       <c r="R35" t="n">
-        <v>3943.531835159804</v>
+        <v>3943.531835159807</v>
       </c>
       <c r="S35" t="n">
-        <v>3844.906045395661</v>
+        <v>3844.906045395664</v>
       </c>
       <c r="T35" t="n">
-        <v>3641.169131857671</v>
+        <v>3641.169131857674</v>
       </c>
       <c r="U35" t="n">
-        <v>3387.679606982158</v>
+        <v>3542.669093214141</v>
       </c>
       <c r="V35" t="n">
-        <v>3056.616719638588</v>
+        <v>3542.669093214141</v>
       </c>
       <c r="W35" t="n">
-        <v>2703.848064368473</v>
+        <v>3189.900437944027</v>
       </c>
       <c r="X35" t="n">
-        <v>2330.382306107394</v>
+        <v>2816.434679682947</v>
       </c>
       <c r="Y35" t="n">
-        <v>1940.242974131582</v>
+        <v>2426.295347707136</v>
       </c>
     </row>
     <row r="36">
@@ -7010,25 +7010,25 @@
         <v>176.3046527720956</v>
       </c>
       <c r="H36" t="n">
-        <v>88.44795579371879</v>
+        <v>88.44795579371885</v>
       </c>
       <c r="I36" t="n">
-        <v>78.87063670319608</v>
+        <v>78.87063670319614</v>
       </c>
       <c r="J36" t="n">
-        <v>197.9095278678809</v>
+        <v>197.909527867881</v>
       </c>
       <c r="K36" t="n">
-        <v>479.5207778288762</v>
+        <v>479.5207778288765</v>
       </c>
       <c r="L36" t="n">
-        <v>904.5043975433666</v>
+        <v>904.504397543367</v>
       </c>
       <c r="M36" t="n">
         <v>1419.797104740098</v>
       </c>
       <c r="N36" t="n">
-        <v>1963.136721510769</v>
+        <v>1963.13672151077</v>
       </c>
       <c r="O36" t="n">
         <v>2437.96652564695</v>
@@ -7071,37 +7071,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>511.460130742896</v>
+        <v>559.455693681952</v>
       </c>
       <c r="C37" t="n">
-        <v>342.5239478149891</v>
+        <v>390.519510754045</v>
       </c>
       <c r="D37" t="n">
-        <v>226.7837302855892</v>
+        <v>390.519510754045</v>
       </c>
       <c r="E37" t="n">
-        <v>78.87063670319608</v>
+        <v>390.519510754045</v>
       </c>
       <c r="F37" t="n">
-        <v>78.87063670319608</v>
+        <v>390.519510754045</v>
       </c>
       <c r="G37" t="n">
-        <v>78.87063670319608</v>
+        <v>223.0462940085647</v>
       </c>
       <c r="H37" t="n">
-        <v>78.87063670319608</v>
+        <v>78.87063670319614</v>
       </c>
       <c r="I37" t="n">
-        <v>78.87063670319608</v>
+        <v>78.87063670319614</v>
       </c>
       <c r="J37" t="n">
-        <v>139.9043355545542</v>
+        <v>139.9043355545543</v>
       </c>
       <c r="K37" t="n">
-        <v>370.038288292362</v>
+        <v>370.0382882923622</v>
       </c>
       <c r="L37" t="n">
-        <v>720.0569500529228</v>
+        <v>720.056950052923</v>
       </c>
       <c r="M37" t="n">
         <v>1099.491675736239</v>
@@ -7110,37 +7110,37 @@
         <v>1475.338908142971</v>
       </c>
       <c r="O37" t="n">
-        <v>1806.478364393455</v>
+        <v>1806.478364393456</v>
       </c>
       <c r="P37" t="n">
         <v>2066.304693095655</v>
       </c>
       <c r="Q37" t="n">
-        <v>2162.759895079613</v>
+        <v>2162.759895079614</v>
       </c>
       <c r="R37" t="n">
-        <v>2162.759895079613</v>
+        <v>2083.253982614363</v>
       </c>
       <c r="S37" t="n">
-        <v>1975.07565917533</v>
+        <v>1895.56974671008</v>
       </c>
       <c r="T37" t="n">
-        <v>1754.290146867641</v>
+        <v>1674.784234402391</v>
       </c>
       <c r="U37" t="n">
-        <v>1465.199804714001</v>
+        <v>1513.195367653057</v>
       </c>
       <c r="V37" t="n">
-        <v>1210.515316508114</v>
+        <v>1258.51087944717</v>
       </c>
       <c r="W37" t="n">
-        <v>921.0981464711531</v>
+        <v>969.093709410209</v>
       </c>
       <c r="X37" t="n">
-        <v>693.1085955731357</v>
+        <v>741.1041585121917</v>
       </c>
       <c r="Y37" t="n">
-        <v>693.1085955731357</v>
+        <v>741.1041585121917</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1757.38004760545</v>
+        <v>2039.695507643014</v>
       </c>
       <c r="C38" t="n">
-        <v>1388.417530665038</v>
+        <v>1670.732990702602</v>
       </c>
       <c r="D38" t="n">
-        <v>1030.151832058287</v>
+        <v>1312.467292095851</v>
       </c>
       <c r="E38" t="n">
-        <v>644.3635794600432</v>
+        <v>926.6790394976072</v>
       </c>
       <c r="F38" t="n">
-        <v>233.3776746704356</v>
+        <v>515.6931347079995</v>
       </c>
       <c r="G38" t="n">
-        <v>233.3776746704356</v>
+        <v>101.1325826861287</v>
       </c>
       <c r="H38" t="n">
-        <v>101.1325826861288</v>
+        <v>101.1325826861287</v>
       </c>
       <c r="I38" t="n">
-        <v>78.87063670319608</v>
+        <v>78.87063670319614</v>
       </c>
       <c r="J38" t="n">
-        <v>310.3318922270719</v>
+        <v>310.3318922270721</v>
       </c>
       <c r="K38" t="n">
-        <v>707.9708323625641</v>
+        <v>707.9708323625637</v>
       </c>
       <c r="L38" t="n">
         <v>1238.17886109889</v>
       </c>
       <c r="M38" t="n">
-        <v>1859.80689066217</v>
+        <v>1859.806890662171</v>
       </c>
       <c r="N38" t="n">
-        <v>2496.107320014713</v>
+        <v>2496.107320014715</v>
       </c>
       <c r="O38" t="n">
-        <v>3083.612510848994</v>
+        <v>3083.612510848995</v>
       </c>
       <c r="P38" t="n">
-        <v>3550.53359795412</v>
+        <v>3550.533597954121</v>
       </c>
       <c r="Q38" t="n">
-        <v>3852.999142367602</v>
+        <v>3852.999142367605</v>
       </c>
       <c r="R38" t="n">
-        <v>3943.531835159804</v>
+        <v>3943.531835159807</v>
       </c>
       <c r="S38" t="n">
-        <v>3844.906045395661</v>
+        <v>3943.531835159807</v>
       </c>
       <c r="T38" t="n">
-        <v>3844.906045395661</v>
+        <v>3739.794921621818</v>
       </c>
       <c r="U38" t="n">
-        <v>3591.416520520148</v>
+        <v>3542.669093214141</v>
       </c>
       <c r="V38" t="n">
-        <v>3260.353633176577</v>
+        <v>3542.669093214141</v>
       </c>
       <c r="W38" t="n">
-        <v>2907.584977906463</v>
+        <v>3189.900437944027</v>
       </c>
       <c r="X38" t="n">
-        <v>2534.119219645383</v>
+        <v>2816.434679682947</v>
       </c>
       <c r="Y38" t="n">
-        <v>2143.979887669571</v>
+        <v>2426.295347707136</v>
       </c>
     </row>
     <row r="39">
@@ -7250,25 +7250,25 @@
         <v>88.44795579371882</v>
       </c>
       <c r="I39" t="n">
-        <v>78.87063670319608</v>
+        <v>78.87063670319614</v>
       </c>
       <c r="J39" t="n">
-        <v>197.9095278678809</v>
+        <v>197.9095278678811</v>
       </c>
       <c r="K39" t="n">
-        <v>479.5207778288761</v>
+        <v>479.5207778288766</v>
       </c>
       <c r="L39" t="n">
-        <v>904.5043975433664</v>
+        <v>904.5043975433672</v>
       </c>
       <c r="M39" t="n">
-        <v>1419.797104740097</v>
+        <v>1419.797104740099</v>
       </c>
       <c r="N39" t="n">
-        <v>1963.136721510769</v>
+        <v>1963.136721510771</v>
       </c>
       <c r="O39" t="n">
-        <v>2437.966525646949</v>
+        <v>2437.966525646951</v>
       </c>
       <c r="P39" t="n">
         <v>2558.709283247168</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>478.3517875036489</v>
+        <v>247.8068196311031</v>
       </c>
       <c r="C40" t="n">
-        <v>309.415604575742</v>
+        <v>78.87063670319614</v>
       </c>
       <c r="D40" t="n">
-        <v>309.415604575742</v>
+        <v>78.87063670319614</v>
       </c>
       <c r="E40" t="n">
-        <v>161.5025109933489</v>
+        <v>78.87063670319614</v>
       </c>
       <c r="F40" t="n">
-        <v>161.5025109933489</v>
+        <v>78.87063670319614</v>
       </c>
       <c r="G40" t="n">
-        <v>161.5025109933489</v>
+        <v>78.87063670319614</v>
       </c>
       <c r="H40" t="n">
-        <v>78.87063670319608</v>
+        <v>78.87063670319614</v>
       </c>
       <c r="I40" t="n">
-        <v>78.87063670319608</v>
+        <v>78.87063670319614</v>
       </c>
       <c r="J40" t="n">
-        <v>139.9043355545542</v>
+        <v>139.9043355545543</v>
       </c>
       <c r="K40" t="n">
-        <v>370.0382882923619</v>
+        <v>370.0382882923623</v>
       </c>
       <c r="L40" t="n">
-        <v>720.0569500529226</v>
+        <v>720.0569500529232</v>
       </c>
       <c r="M40" t="n">
-        <v>1099.491675736239</v>
+        <v>1099.49167573624</v>
       </c>
       <c r="N40" t="n">
-        <v>1475.338908142971</v>
+        <v>1475.338908142972</v>
       </c>
       <c r="O40" t="n">
-        <v>1806.478364393455</v>
+        <v>1806.478364393456</v>
       </c>
       <c r="P40" t="n">
-        <v>2066.304693095655</v>
+        <v>2066.304693095656</v>
       </c>
       <c r="Q40" t="n">
-        <v>2162.759895079613</v>
+        <v>2162.759895079615</v>
       </c>
       <c r="R40" t="n">
-        <v>2162.759895079613</v>
+        <v>2083.253982614364</v>
       </c>
       <c r="S40" t="n">
-        <v>2162.759895079613</v>
+        <v>1895.569746710081</v>
       </c>
       <c r="T40" t="n">
-        <v>1941.974382771924</v>
+        <v>1674.784234402392</v>
       </c>
       <c r="U40" t="n">
-        <v>1652.884040618284</v>
+        <v>1385.693892248752</v>
       </c>
       <c r="V40" t="n">
-        <v>1398.199552412397</v>
+        <v>1131.009404042865</v>
       </c>
       <c r="W40" t="n">
-        <v>1108.782382375436</v>
+        <v>878.2374145028903</v>
       </c>
       <c r="X40" t="n">
-        <v>880.7928314774188</v>
+        <v>650.2478636048729</v>
       </c>
       <c r="Y40" t="n">
-        <v>660.0002523338886</v>
+        <v>429.4552844613428</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1757.380047605449</v>
+        <v>1652.268923831606</v>
       </c>
       <c r="C41" t="n">
-        <v>1388.417530665037</v>
+        <v>1283.306406891195</v>
       </c>
       <c r="D41" t="n">
-        <v>1030.151832058287</v>
+        <v>1283.306406891195</v>
       </c>
       <c r="E41" t="n">
-        <v>1030.151832058287</v>
+        <v>926.6790394976072</v>
       </c>
       <c r="F41" t="n">
-        <v>619.1659272686795</v>
+        <v>515.6931347079995</v>
       </c>
       <c r="G41" t="n">
-        <v>204.6053752468087</v>
+        <v>101.1325826861288</v>
       </c>
       <c r="H41" t="n">
         <v>101.1325826861288</v>
       </c>
       <c r="I41" t="n">
-        <v>78.87063670319608</v>
+        <v>78.87063670319614</v>
       </c>
       <c r="J41" t="n">
-        <v>310.3318922270719</v>
+        <v>310.3318922270723</v>
       </c>
       <c r="K41" t="n">
-        <v>707.9708323625632</v>
+        <v>707.9708323625641</v>
       </c>
       <c r="L41" t="n">
         <v>1238.17886109889</v>
       </c>
       <c r="M41" t="n">
-        <v>1859.80689066217</v>
+        <v>1859.806890662171</v>
       </c>
       <c r="N41" t="n">
         <v>2496.107320014714</v>
       </c>
       <c r="O41" t="n">
-        <v>3083.612510848994</v>
+        <v>3083.612510848995</v>
       </c>
       <c r="P41" t="n">
-        <v>3550.533597954119</v>
+        <v>3550.533597954121</v>
       </c>
       <c r="Q41" t="n">
-        <v>3852.999142367602</v>
+        <v>3852.999142367605</v>
       </c>
       <c r="R41" t="n">
-        <v>3943.531835159804</v>
+        <v>3943.531835159807</v>
       </c>
       <c r="S41" t="n">
-        <v>3844.90604539566</v>
+        <v>3943.531835159807</v>
       </c>
       <c r="T41" t="n">
-        <v>3844.90604539566</v>
+        <v>3739.794921621818</v>
       </c>
       <c r="U41" t="n">
-        <v>3591.416520520148</v>
+        <v>3486.305396746305</v>
       </c>
       <c r="V41" t="n">
-        <v>3260.353633176577</v>
+        <v>3155.242509402734</v>
       </c>
       <c r="W41" t="n">
-        <v>2907.584977906462</v>
+        <v>2802.47385413262</v>
       </c>
       <c r="X41" t="n">
-        <v>2534.119219645383</v>
+        <v>2429.00809587154</v>
       </c>
       <c r="Y41" t="n">
-        <v>2143.979887669571</v>
+        <v>2038.868763895728</v>
       </c>
     </row>
     <row r="42">
@@ -7484,28 +7484,28 @@
         <v>176.3046527720956</v>
       </c>
       <c r="H42" t="n">
-        <v>88.44795579371882</v>
+        <v>88.44795579371885</v>
       </c>
       <c r="I42" t="n">
-        <v>78.87063670319608</v>
+        <v>78.87063670319614</v>
       </c>
       <c r="J42" t="n">
-        <v>197.9095278678809</v>
+        <v>197.909527867881</v>
       </c>
       <c r="K42" t="n">
-        <v>479.5207778288761</v>
+        <v>238.5038221180926</v>
       </c>
       <c r="L42" t="n">
-        <v>904.5043975433664</v>
+        <v>663.487441832583</v>
       </c>
       <c r="M42" t="n">
-        <v>1419.797104740097</v>
+        <v>1178.780149029314</v>
       </c>
       <c r="N42" t="n">
-        <v>1963.136721510769</v>
+        <v>1722.119765799986</v>
       </c>
       <c r="O42" t="n">
-        <v>2437.966525646949</v>
+        <v>2196.949569936166</v>
       </c>
       <c r="P42" t="n">
         <v>2558.709283247168</v>
@@ -7545,37 +7545,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>953.821788017225</v>
+        <v>415.2800363765834</v>
       </c>
       <c r="C43" t="n">
-        <v>784.8856050893181</v>
+        <v>246.3438534486765</v>
       </c>
       <c r="D43" t="n">
-        <v>634.7689656769824</v>
+        <v>246.3438534486765</v>
       </c>
       <c r="E43" t="n">
-        <v>537.4094582519554</v>
+        <v>246.3438534486765</v>
       </c>
       <c r="F43" t="n">
-        <v>390.519510754045</v>
+        <v>246.3438534486765</v>
       </c>
       <c r="G43" t="n">
-        <v>223.0462940085646</v>
+        <v>78.87063670319614</v>
       </c>
       <c r="H43" t="n">
-        <v>78.87063670319608</v>
+        <v>78.87063670319614</v>
       </c>
       <c r="I43" t="n">
-        <v>78.87063670319608</v>
+        <v>78.87063670319614</v>
       </c>
       <c r="J43" t="n">
-        <v>139.9043355545542</v>
+        <v>139.9043355545543</v>
       </c>
       <c r="K43" t="n">
-        <v>370.0382882923619</v>
+        <v>370.0382882923622</v>
       </c>
       <c r="L43" t="n">
-        <v>720.0569500529226</v>
+        <v>720.056950052923</v>
       </c>
       <c r="M43" t="n">
         <v>1099.491675736239</v>
@@ -7584,37 +7584,37 @@
         <v>1475.338908142971</v>
       </c>
       <c r="O43" t="n">
-        <v>1806.478364393455</v>
+        <v>1806.478364393456</v>
       </c>
       <c r="P43" t="n">
         <v>2066.304693095655</v>
       </c>
       <c r="Q43" t="n">
-        <v>2162.759895079613</v>
+        <v>2162.759895079614</v>
       </c>
       <c r="R43" t="n">
-        <v>2162.759895079613</v>
+        <v>2083.253982614363</v>
       </c>
       <c r="S43" t="n">
-        <v>2162.759895079613</v>
+        <v>1895.56974671008</v>
       </c>
       <c r="T43" t="n">
-        <v>2162.759895079613</v>
+        <v>1697.254166814618</v>
       </c>
       <c r="U43" t="n">
-        <v>1873.669552925973</v>
+        <v>1408.163824660978</v>
       </c>
       <c r="V43" t="n">
-        <v>1873.669552925973</v>
+        <v>1153.479336455091</v>
       </c>
       <c r="W43" t="n">
-        <v>1584.252382889012</v>
+        <v>864.0621664181308</v>
       </c>
       <c r="X43" t="n">
-        <v>1356.262831990995</v>
+        <v>636.0726155201135</v>
       </c>
       <c r="Y43" t="n">
-        <v>1135.470252847465</v>
+        <v>415.2800363765834</v>
       </c>
     </row>
     <row r="44">
@@ -7639,52 +7639,52 @@
         <v>808.0342583432871</v>
       </c>
       <c r="G44" t="n">
-        <v>393.4737063214162</v>
+        <v>393.4737063214163</v>
       </c>
       <c r="H44" t="n">
         <v>101.1325826861288</v>
       </c>
       <c r="I44" t="n">
-        <v>78.87063670319606</v>
+        <v>78.87063670319613</v>
       </c>
       <c r="J44" t="n">
-        <v>310.3318922270716</v>
+        <v>310.3318922270728</v>
       </c>
       <c r="K44" t="n">
-        <v>707.9708323625629</v>
+        <v>707.9708323625646</v>
       </c>
       <c r="L44" t="n">
-        <v>1238.178861098888</v>
+        <v>1238.178861098891</v>
       </c>
       <c r="M44" t="n">
-        <v>1859.806890662168</v>
+        <v>1859.806890662172</v>
       </c>
       <c r="N44" t="n">
-        <v>2496.107320014712</v>
+        <v>2496.107320014715</v>
       </c>
       <c r="O44" t="n">
-        <v>3083.612510848992</v>
+        <v>3083.612510848995</v>
       </c>
       <c r="P44" t="n">
-        <v>3550.533597954118</v>
+        <v>3550.533597954121</v>
       </c>
       <c r="Q44" t="n">
-        <v>3852.999142367601</v>
+        <v>3852.999142367604</v>
       </c>
       <c r="R44" t="n">
-        <v>3943.531835159803</v>
+        <v>3943.531835159806</v>
       </c>
       <c r="S44" t="n">
-        <v>3844.906045395659</v>
+        <v>3943.531835159806</v>
       </c>
       <c r="T44" t="n">
-        <v>3844.906045395659</v>
+        <v>3943.531835159806</v>
       </c>
       <c r="U44" t="n">
-        <v>3591.416520520147</v>
+        <v>3835.010216849429</v>
       </c>
       <c r="V44" t="n">
-        <v>3591.416520520147</v>
+        <v>3835.010216849429</v>
       </c>
       <c r="W44" t="n">
         <v>3482.241561579315</v>
@@ -7721,28 +7721,28 @@
         <v>176.3046527720956</v>
       </c>
       <c r="H45" t="n">
-        <v>88.44795579371879</v>
+        <v>88.44795579371885</v>
       </c>
       <c r="I45" t="n">
-        <v>78.87063670319606</v>
+        <v>78.87063670319613</v>
       </c>
       <c r="J45" t="n">
-        <v>197.9095278678809</v>
+        <v>197.909527867881</v>
       </c>
       <c r="K45" t="n">
-        <v>479.5207778288761</v>
+        <v>479.5207778288763</v>
       </c>
       <c r="L45" t="n">
-        <v>904.5043975433664</v>
+        <v>904.5043975433666</v>
       </c>
       <c r="M45" t="n">
-        <v>1419.797104740097</v>
+        <v>1419.797104740098</v>
       </c>
       <c r="N45" t="n">
         <v>1963.136721510769</v>
       </c>
       <c r="O45" t="n">
-        <v>2437.966525646949</v>
+        <v>2437.96652564695</v>
       </c>
       <c r="P45" t="n">
         <v>2558.709283247168</v>
@@ -7782,37 +7782,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>517.8493350888681</v>
+        <v>415.2800363765833</v>
       </c>
       <c r="C46" t="n">
-        <v>517.8493350888681</v>
+        <v>246.3438534486764</v>
       </c>
       <c r="D46" t="n">
-        <v>517.8493350888681</v>
+        <v>246.3438534486764</v>
       </c>
       <c r="E46" t="n">
-        <v>369.936241506475</v>
+        <v>246.3438534486764</v>
       </c>
       <c r="F46" t="n">
-        <v>223.0462940085646</v>
+        <v>246.3438534486764</v>
       </c>
       <c r="G46" t="n">
-        <v>223.0462940085646</v>
+        <v>78.87063670319613</v>
       </c>
       <c r="H46" t="n">
-        <v>78.87063670319606</v>
+        <v>78.87063670319613</v>
       </c>
       <c r="I46" t="n">
-        <v>78.87063670319606</v>
+        <v>78.87063670319613</v>
       </c>
       <c r="J46" t="n">
-        <v>139.9043355545541</v>
+        <v>139.9043355545543</v>
       </c>
       <c r="K46" t="n">
-        <v>370.0382882923619</v>
+        <v>370.0382882923621</v>
       </c>
       <c r="L46" t="n">
-        <v>720.0569500529226</v>
+        <v>720.056950052923</v>
       </c>
       <c r="M46" t="n">
         <v>1099.491675736239</v>
@@ -7833,25 +7833,25 @@
         <v>2162.759895079613</v>
       </c>
       <c r="S46" t="n">
-        <v>2020.608977834592</v>
+        <v>1975.07565917533</v>
       </c>
       <c r="T46" t="n">
-        <v>1799.823465526903</v>
+        <v>1754.290146867641</v>
       </c>
       <c r="U46" t="n">
-        <v>1510.733123373263</v>
+        <v>1465.199804714001</v>
       </c>
       <c r="V46" t="n">
-        <v>1256.048635167376</v>
+        <v>1210.515316508114</v>
       </c>
       <c r="W46" t="n">
-        <v>966.6314651304156</v>
+        <v>1045.710631248371</v>
       </c>
       <c r="X46" t="n">
-        <v>738.6419142323982</v>
+        <v>817.7210803503532</v>
       </c>
       <c r="Y46" t="n">
-        <v>517.8493350888681</v>
+        <v>596.9285012068231</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -22546,13 +22546,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -22597,7 +22597,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -22612,10 +22612,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>176.3204292380032</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22704,25 +22704,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>46.51858690028328</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -22767,7 +22767,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -22801,10 +22801,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22837,19 +22837,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>248.3340760291583</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22944,25 +22944,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>112.2329384539344</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22998,7 +22998,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -23074,19 +23074,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>256.7665117192699</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -23181,10 +23181,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -23193,13 +23193,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23226,13 +23226,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -23244,7 +23244,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>43.43418703317641</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -23266,16 +23266,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
         <v>41.57692977292595</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>229.5386986620829</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>97.95568926599782</v>
       </c>
     </row>
     <row r="12">
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>79.09653893143596</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,13 +23466,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>94.35543628911086</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23494,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23509,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>222.8695767412361</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23560,10 +23560,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>160.2079987529981</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>164.7576090751779</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>67.35107801618327</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23670,10 +23670,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23749,7 +23749,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -23785,22 +23785,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>83.4509122417646</v>
       </c>
       <c r="V17" t="n">
-        <v>86.50423947378019</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>77.1217987144953</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>75.50340795433985</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23977,10 +23977,10 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>7.756023399656158</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>196.0458257160157</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24126,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>134.1799091450581</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,10 +24183,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>16.14213605696614</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24208,7 +24208,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24223,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>289.4177123989346</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24259,13 +24259,13 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>77.58441199758903</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>94.95391118374377</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24274,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24369,7 +24369,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>104.7350118490289</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>34.83039217141567</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>142.7339007323149</v>
       </c>
       <c r="I25" t="n">
-        <v>89.5161773484112</v>
+        <v>89.51617734841119</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>78.71085334059828</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24445,13 +24445,13 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24463,7 +24463,7 @@
         <v>289.4177123989346</v>
       </c>
       <c r="I26" t="n">
-        <v>1.621947901033039</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>97.63953186650193</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>115.9189580687898</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>165.420210083126</v>
+        <v>123.3663599294444</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>142.7339007323149</v>
       </c>
       <c r="I28" t="n">
-        <v>89.5161773484112</v>
+        <v>89.51617734841119</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>78.71085334059829</v>
+        <v>78.71085334059828</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24691,7 +24691,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>159.8134470475802</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24700,7 +24700,7 @@
         <v>289.4177123989346</v>
       </c>
       <c r="I29" t="n">
-        <v>22.03932652310334</v>
+        <v>22.03932652310328</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,10 +24730,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>97.63953186650193</v>
+        <v>97.63953186650191</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>201.6995444026096</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24742,10 +24742,10 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>12.27202273277976</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>50.20975076776351</v>
       </c>
       <c r="G31" t="n">
-        <v>14.0307448643745</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>142.7339007323149</v>
       </c>
       <c r="I31" t="n">
-        <v>89.5161773484112</v>
+        <v>89.51617734841119</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>78.71085334059829</v>
+        <v>78.71085334059828</v>
       </c>
       <c r="S31" t="n">
-        <v>185.8073935452402</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>218.5776571846122</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>99.99019072910477</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24934,10 +24934,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>289.4177123989346</v>
       </c>
       <c r="I32" t="n">
-        <v>22.03932652310334</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,10 +24967,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>97.63953186650193</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>201.6995444026096</v>
+        <v>111.4607491613264</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -24979,10 +24979,10 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>12.20688458840991</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.7984845780255</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>142.7339007323149</v>
       </c>
       <c r="I34" t="n">
-        <v>89.5161773484112</v>
+        <v>89.51617734841119</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>78.71085334059829</v>
+        <v>34.83039217141449</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>77.22215324443277</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25162,7 +25162,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25174,7 +25174,7 @@
         <v>289.4177123989346</v>
       </c>
       <c r="I35" t="n">
-        <v>22.03932652310334</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25210,10 +25210,10 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>153.4395913696605</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>34.03265766410644</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.7984845780255</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.7339007323149</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>89.5161773484112</v>
+        <v>89.51617734841119</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>78.71085334059829</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>126.2264606502626</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25405,10 +25405,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>410.4149465016521</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>158.4950713344709</v>
+        <v>289.4177123989346</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,16 +25441,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>97.6395318665019</v>
       </c>
       <c r="T38" t="n">
-        <v>201.6995444026096</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>55.80005950315845</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25557,7 +25557,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25566,10 +25566,10 @@
         <v>165.7984845780255</v>
       </c>
       <c r="H40" t="n">
-        <v>60.92834518506361</v>
+        <v>142.7339007323149</v>
       </c>
       <c r="I40" t="n">
-        <v>89.5161773484112</v>
+        <v>89.51617734841118</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>78.71085334059831</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>185.8073935452402</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>36.27872869201619</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25633,10 +25633,10 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>28.86927635261014</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25645,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>186.9796477638615</v>
+        <v>289.4177123989346</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>97.63953186650191</v>
       </c>
       <c r="T41" t="n">
-        <v>201.6995444026096</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>50.04805029579244</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.7339007323149</v>
       </c>
       <c r="I43" t="n">
-        <v>89.5161773484112</v>
+        <v>89.51617734841119</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>78.71085334059831</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>185.8073935452402</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>218.5776571846122</v>
+        <v>22.24523308810532</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25915,19 +25915,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>97.63953186650193</v>
       </c>
       <c r="T44" t="n">
         <v>201.6995444026096</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>143.5182274994845</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>241.1577593659895</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26022,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.7984845780255</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.7339007323149</v>
       </c>
       <c r="I46" t="n">
         <v>89.5161773484112</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>78.71085334059831</v>
+        <v>78.71085334059829</v>
       </c>
       <c r="S46" t="n">
-        <v>45.07798547266984</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>123.3663599294453</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>998058.947102399</v>
+        <v>831201.8607954686</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>998058.947102399</v>
+        <v>831201.8607954686</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>998058.947102399</v>
+        <v>831201.8607954686</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>831201.8607954687</v>
+        <v>831201.8607954684</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>831201.8607954687</v>
+        <v>831201.8607954686</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>899256.1457962471</v>
+        <v>899256.1457962472</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>899256.1457962471</v>
+        <v>899256.1457962469</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>899256.1457962469</v>
+        <v>899256.1457962473</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>899256.1457962469</v>
+        <v>899256.1457962473</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>899256.1457962469</v>
+        <v>899256.1457962471</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>899256.1457962468</v>
+        <v>899256.1457962473</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>899256.1457962469</v>
+        <v>899256.1457962472</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>899256.1457962468</v>
+        <v>899256.1457962471</v>
       </c>
     </row>
   </sheetData>
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>451572.9734253559</v>
+        <v>375096.8088680127</v>
       </c>
       <c r="C2" t="n">
-        <v>451572.9734253559</v>
+        <v>375096.8088680127</v>
       </c>
       <c r="D2" t="n">
-        <v>451572.9734253559</v>
+        <v>375096.8088680127</v>
       </c>
       <c r="E2" t="n">
         <v>375096.8088680127</v>
       </c>
       <c r="F2" t="n">
-        <v>375096.8088680127</v>
+        <v>375096.8088680126</v>
       </c>
       <c r="G2" t="n">
         <v>375096.8088680127</v>
@@ -26334,19 +26334,19 @@
         <v>375096.8088680127</v>
       </c>
       <c r="I2" t="n">
+        <v>406288.3561600361</v>
+      </c>
+      <c r="J2" t="n">
+        <v>406288.3561600361</v>
+      </c>
+      <c r="K2" t="n">
+        <v>406288.3561600363</v>
+      </c>
+      <c r="L2" t="n">
+        <v>406288.3561600363</v>
+      </c>
+      <c r="M2" t="n">
         <v>406288.3561600362</v>
-      </c>
-      <c r="J2" t="n">
-        <v>406288.3561600362</v>
-      </c>
-      <c r="K2" t="n">
-        <v>406288.3561600362</v>
-      </c>
-      <c r="L2" t="n">
-        <v>406288.3561600361</v>
-      </c>
-      <c r="M2" t="n">
-        <v>406288.3561600361</v>
       </c>
       <c r="N2" t="n">
         <v>406288.3561600362</v>
@@ -26355,7 +26355,7 @@
         <v>406288.3561600362</v>
       </c>
       <c r="P2" t="n">
-        <v>406288.3561600361</v>
+        <v>406288.3561600363</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1.82672692972119e-10</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>135972.4039225092</v>
+        <v>135972.4039225093</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972778</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26401,7 +26401,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.569592313899193e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92793.84288319405</v>
+        <v>13430.06689216534</v>
       </c>
       <c r="C4" t="n">
-        <v>92793.84288319401</v>
+        <v>13430.06689216534</v>
       </c>
       <c r="D4" t="n">
-        <v>92793.84288319403</v>
+        <v>13430.06689216532</v>
       </c>
       <c r="E4" t="n">
         <v>13430.06689216532</v>
@@ -26481,7 +26481,7 @@
         <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.34056139331</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="G5" t="n">
         <v>74306.3405613933</v>
@@ -26496,22 +26496,22 @@
         <v>86446.95261279386</v>
       </c>
       <c r="K5" t="n">
-        <v>86446.95261279383</v>
+        <v>86446.95261279389</v>
       </c>
       <c r="L5" t="n">
-        <v>86446.95261279383</v>
+        <v>86446.95261279389</v>
       </c>
       <c r="M5" t="n">
-        <v>86446.95261279384</v>
+        <v>86446.95261279389</v>
       </c>
       <c r="N5" t="n">
-        <v>86446.95261279384</v>
+        <v>86446.9526127939</v>
       </c>
       <c r="O5" t="n">
-        <v>86446.95261279383</v>
+        <v>86446.95261279389</v>
       </c>
       <c r="P5" t="n">
-        <v>86446.95261279382</v>
+        <v>86446.95261279387</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1077899.555746824</v>
+        <v>-1075359.563242944</v>
       </c>
       <c r="C6" t="n">
-        <v>250845.1899807686</v>
+        <v>253385.182484648</v>
       </c>
       <c r="D6" t="n">
-        <v>250845.1899807685</v>
+        <v>253385.182484648</v>
       </c>
       <c r="E6" t="n">
-        <v>283884.212116393</v>
+        <v>287012.7824846478</v>
       </c>
       <c r="F6" t="n">
-        <v>283884.2121163929</v>
+        <v>287012.7824846479</v>
       </c>
       <c r="G6" t="n">
-        <v>283884.2121163932</v>
+        <v>287012.782484648</v>
       </c>
       <c r="H6" t="n">
-        <v>283884.212116393</v>
+        <v>287012.782484648</v>
       </c>
       <c r="I6" t="n">
-        <v>168300.5944652758</v>
+        <v>170153.146989766</v>
       </c>
       <c r="J6" t="n">
-        <v>86741.79599050723</v>
+        <v>88594.34851499784</v>
       </c>
       <c r="K6" t="n">
-        <v>304272.9983877853</v>
+        <v>306125.5509122754</v>
       </c>
       <c r="L6" t="n">
-        <v>304272.998387785</v>
+        <v>306125.5509122754</v>
       </c>
       <c r="M6" t="n">
-        <v>304272.9983877849</v>
+        <v>306125.5509122754</v>
       </c>
       <c r="N6" t="n">
-        <v>304272.9983877853</v>
+        <v>306125.5509122752</v>
       </c>
       <c r="O6" t="n">
-        <v>304272.998387785</v>
+        <v>306125.5509122756</v>
       </c>
       <c r="P6" t="n">
-        <v>304272.998387785</v>
+        <v>306125.5509122754</v>
       </c>
     </row>
   </sheetData>
@@ -26749,7 +26749,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
         <v>1089.776700593298</v>
@@ -26789,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="C4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="E4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="F4" t="n">
         <v>831.4014554022929</v>
       </c>
-      <c r="D4" t="n">
-        <v>831.4014554022928</v>
-      </c>
-      <c r="E4" t="n">
-        <v>831.4014554022928</v>
-      </c>
-      <c r="F4" t="n">
-        <v>831.4014554022928</v>
-      </c>
       <c r="G4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="I4" t="n">
         <v>985.8829587899513</v>
@@ -26816,22 +26816,22 @@
         <v>985.8829587899513</v>
       </c>
       <c r="K4" t="n">
-        <v>985.882958789951</v>
+        <v>985.8829587899518</v>
       </c>
       <c r="L4" t="n">
-        <v>985.882958789951</v>
+        <v>985.8829587899518</v>
       </c>
       <c r="M4" t="n">
-        <v>985.8829587899511</v>
+        <v>985.8829587899518</v>
       </c>
       <c r="N4" t="n">
-        <v>985.8829587899511</v>
+        <v>985.8829587899518</v>
       </c>
       <c r="O4" t="n">
-        <v>985.882958789951</v>
+        <v>985.8829587899518</v>
       </c>
       <c r="P4" t="n">
-        <v>985.8829587899507</v>
+        <v>985.8829587899515</v>
       </c>
     </row>
   </sheetData>
@@ -26968,37 +26968,37 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>126.0613140105929</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="G3" t="n">
+      <c r="O3" t="n">
         <v>-2.273736754432321e-13</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>126.0613140105927</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>-2.273736754432321e-13</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27011,34 +27011,34 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>154.4815033876584</v>
+      </c>
+      <c r="J4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>154.4815033876586</v>
-      </c>
-      <c r="J4" t="n">
-        <v>831.4014554022939</v>
-      </c>
       <c r="K4" t="n">
-        <v>-1.066570977350887e-12</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>126.090039683816</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27557,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>69.34270184147215</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27593,16 +27593,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27624,7 +27624,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>235.2778014719908</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27669,19 +27669,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27791,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>40.61746628515233</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27833,16 +27833,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27858,7 +27858,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27918,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>5.189545257670034</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28019,19 +28019,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,10 +28061,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>21.55565338574721</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -31041,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31126,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31214,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31232,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31840,7 +31840,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
@@ -31849,7 +31849,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
         <v>609.6478166837925</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
         <v>44.86703772844668</v>
@@ -31998,40 +31998,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026431</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32150,43 +32150,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
         <v>0.1071911508780295</v>
@@ -32700,10 +32700,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.887791013482975</v>
+        <v>4.887791013482977</v>
       </c>
       <c r="H23" t="n">
-        <v>50.05708971683253</v>
+        <v>50.05708971683254</v>
       </c>
       <c r="I23" t="n">
         <v>188.4365630473026</v>
@@ -32712,37 +32712,37 @@
         <v>414.8451525306011</v>
       </c>
       <c r="K23" t="n">
-        <v>621.7453461313355</v>
+        <v>621.7453461313356</v>
       </c>
       <c r="L23" t="n">
-        <v>771.3300803602152</v>
+        <v>771.3300803602154</v>
       </c>
       <c r="M23" t="n">
-        <v>858.2533337962431</v>
+        <v>858.2533337962433</v>
       </c>
       <c r="N23" t="n">
-        <v>872.1407700133017</v>
+        <v>872.1407700133018</v>
       </c>
       <c r="O23" t="n">
-        <v>823.5377981229802</v>
+        <v>823.5377981229805</v>
       </c>
       <c r="P23" t="n">
-        <v>702.8704574776192</v>
+        <v>702.8704574776193</v>
       </c>
       <c r="Q23" t="n">
-        <v>527.82644180726</v>
+        <v>527.8264418072602</v>
       </c>
       <c r="R23" t="n">
-        <v>307.0327022507002</v>
+        <v>307.0327022507003</v>
       </c>
       <c r="S23" t="n">
         <v>111.3805377197434</v>
       </c>
       <c r="T23" t="n">
-        <v>21.39630516152173</v>
+        <v>21.39630516152174</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3910232810786379</v>
+        <v>0.391023281078638</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,34 +32779,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.615198748393275</v>
+        <v>2.615198748393276</v>
       </c>
       <c r="H24" t="n">
-        <v>25.25731422790347</v>
+        <v>25.25731422790348</v>
       </c>
       <c r="I24" t="n">
-        <v>90.04083410038251</v>
+        <v>90.04083410038253</v>
       </c>
       <c r="J24" t="n">
         <v>247.0789308734191</v>
       </c>
       <c r="K24" t="n">
-        <v>422.2972470157684</v>
+        <v>422.2972470157686</v>
       </c>
       <c r="L24" t="n">
-        <v>567.8307633298645</v>
+        <v>567.8307633298646</v>
       </c>
       <c r="M24" t="n">
-        <v>662.6317179591205</v>
+        <v>662.6317179591206</v>
       </c>
       <c r="N24" t="n">
-        <v>680.1696078112843</v>
+        <v>680.1696078112844</v>
       </c>
       <c r="O24" t="n">
-        <v>622.2223092284648</v>
+        <v>622.222309228465</v>
       </c>
       <c r="P24" t="n">
-        <v>255.9367888286922</v>
+        <v>255.9367888286917</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>48.57616973441014</v>
+        <v>48.57616973441015</v>
       </c>
       <c r="T24" t="n">
         <v>10.54108618321675</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1720525492363997</v>
+        <v>0.1720525492363998</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32864,7 +32864,7 @@
         <v>19.49327177512469</v>
       </c>
       <c r="I25" t="n">
-        <v>65.93429757884708</v>
+        <v>65.93429757884709</v>
       </c>
       <c r="J25" t="n">
         <v>155.0093809766305</v>
@@ -32873,31 +32873,31 @@
         <v>254.7280299448807</v>
       </c>
       <c r="L25" t="n">
-        <v>325.9641785382301</v>
+        <v>325.9641785382302</v>
       </c>
       <c r="M25" t="n">
-        <v>343.6835227182768</v>
+        <v>343.6835227182769</v>
       </c>
       <c r="N25" t="n">
         <v>335.5114967184805</v>
       </c>
       <c r="O25" t="n">
-        <v>309.8991713288738</v>
+        <v>309.8991713288739</v>
       </c>
       <c r="P25" t="n">
-        <v>265.1722778080353</v>
+        <v>265.1722778080354</v>
       </c>
       <c r="Q25" t="n">
-        <v>183.5915402051875</v>
+        <v>183.5915402051876</v>
       </c>
       <c r="R25" t="n">
-        <v>98.58253803657119</v>
+        <v>98.58253803657121</v>
       </c>
       <c r="S25" t="n">
-        <v>38.20920449173209</v>
+        <v>38.2092044917321</v>
       </c>
       <c r="T25" t="n">
-        <v>9.367932243669321</v>
+        <v>9.367932243669323</v>
       </c>
       <c r="U25" t="n">
         <v>0.1195906243872681</v>
@@ -32937,10 +32937,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.887791013482975</v>
+        <v>4.887791013482977</v>
       </c>
       <c r="H26" t="n">
-        <v>50.05708971683253</v>
+        <v>50.05708971683254</v>
       </c>
       <c r="I26" t="n">
         <v>188.4365630473026</v>
@@ -32949,37 +32949,37 @@
         <v>414.8451525306011</v>
       </c>
       <c r="K26" t="n">
-        <v>621.7453461313355</v>
+        <v>621.7453461313356</v>
       </c>
       <c r="L26" t="n">
-        <v>771.3300803602152</v>
+        <v>771.3300803602154</v>
       </c>
       <c r="M26" t="n">
-        <v>858.2533337962431</v>
+        <v>858.2533337962433</v>
       </c>
       <c r="N26" t="n">
-        <v>872.1407700133017</v>
+        <v>872.1407700133018</v>
       </c>
       <c r="O26" t="n">
-        <v>823.5377981229802</v>
+        <v>823.5377981229805</v>
       </c>
       <c r="P26" t="n">
-        <v>702.8704574776192</v>
+        <v>702.8704574776193</v>
       </c>
       <c r="Q26" t="n">
-        <v>527.82644180726</v>
+        <v>527.8264418072602</v>
       </c>
       <c r="R26" t="n">
-        <v>307.0327022507002</v>
+        <v>307.0327022507003</v>
       </c>
       <c r="S26" t="n">
         <v>111.3805377197434</v>
       </c>
       <c r="T26" t="n">
-        <v>21.39630516152173</v>
+        <v>21.39630516152174</v>
       </c>
       <c r="U26" t="n">
-        <v>0.3910232810786379</v>
+        <v>0.391023281078638</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,34 +33016,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.615198748393275</v>
+        <v>2.615198748393276</v>
       </c>
       <c r="H27" t="n">
-        <v>25.25731422790347</v>
+        <v>25.25731422790348</v>
       </c>
       <c r="I27" t="n">
-        <v>90.04083410038251</v>
+        <v>90.04083410038253</v>
       </c>
       <c r="J27" t="n">
         <v>247.0789308734191</v>
       </c>
       <c r="K27" t="n">
-        <v>422.2972470157684</v>
+        <v>422.2972470157686</v>
       </c>
       <c r="L27" t="n">
-        <v>567.8307633298645</v>
+        <v>567.8307633298646</v>
       </c>
       <c r="M27" t="n">
-        <v>662.6317179591205</v>
+        <v>662.6317179591206</v>
       </c>
       <c r="N27" t="n">
-        <v>680.1696078112843</v>
+        <v>680.1696078112844</v>
       </c>
       <c r="O27" t="n">
-        <v>622.2223092284648</v>
+        <v>622.222309228465</v>
       </c>
       <c r="P27" t="n">
-        <v>255.9367888286922</v>
+        <v>255.9367888286917</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>48.57616973441014</v>
+        <v>48.57616973441015</v>
       </c>
       <c r="T27" t="n">
         <v>10.54108618321675</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1720525492363997</v>
+        <v>0.1720525492363998</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33101,7 +33101,7 @@
         <v>19.49327177512469</v>
       </c>
       <c r="I28" t="n">
-        <v>65.93429757884708</v>
+        <v>65.93429757884709</v>
       </c>
       <c r="J28" t="n">
         <v>155.0093809766305</v>
@@ -33110,31 +33110,31 @@
         <v>254.7280299448807</v>
       </c>
       <c r="L28" t="n">
-        <v>325.9641785382301</v>
+        <v>325.9641785382302</v>
       </c>
       <c r="M28" t="n">
-        <v>343.6835227182768</v>
+        <v>343.6835227182769</v>
       </c>
       <c r="N28" t="n">
         <v>335.5114967184805</v>
       </c>
       <c r="O28" t="n">
-        <v>309.8991713288738</v>
+        <v>309.8991713288739</v>
       </c>
       <c r="P28" t="n">
-        <v>265.1722778080353</v>
+        <v>265.1722778080354</v>
       </c>
       <c r="Q28" t="n">
-        <v>183.5915402051875</v>
+        <v>183.5915402051876</v>
       </c>
       <c r="R28" t="n">
-        <v>98.58253803657119</v>
+        <v>98.58253803657121</v>
       </c>
       <c r="S28" t="n">
-        <v>38.20920449173209</v>
+        <v>38.2092044917321</v>
       </c>
       <c r="T28" t="n">
-        <v>9.367932243669321</v>
+        <v>9.367932243669323</v>
       </c>
       <c r="U28" t="n">
         <v>0.1195906243872681</v>
@@ -33174,10 +33174,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.887791013482975</v>
+        <v>4.887791013482977</v>
       </c>
       <c r="H29" t="n">
-        <v>50.05708971683253</v>
+        <v>50.05708971683254</v>
       </c>
       <c r="I29" t="n">
         <v>188.4365630473026</v>
@@ -33186,37 +33186,37 @@
         <v>414.8451525306011</v>
       </c>
       <c r="K29" t="n">
-        <v>621.7453461313355</v>
+        <v>621.7453461313356</v>
       </c>
       <c r="L29" t="n">
-        <v>771.3300803602152</v>
+        <v>771.3300803602154</v>
       </c>
       <c r="M29" t="n">
-        <v>858.2533337962431</v>
+        <v>858.2533337962433</v>
       </c>
       <c r="N29" t="n">
-        <v>872.1407700133017</v>
+        <v>872.1407700133018</v>
       </c>
       <c r="O29" t="n">
-        <v>823.5377981229802</v>
+        <v>823.5377981229805</v>
       </c>
       <c r="P29" t="n">
-        <v>702.8704574776192</v>
+        <v>702.8704574776193</v>
       </c>
       <c r="Q29" t="n">
-        <v>527.82644180726</v>
+        <v>527.8264418072602</v>
       </c>
       <c r="R29" t="n">
-        <v>307.0327022507002</v>
+        <v>307.0327022507003</v>
       </c>
       <c r="S29" t="n">
         <v>111.3805377197434</v>
       </c>
       <c r="T29" t="n">
-        <v>21.39630516152173</v>
+        <v>21.39630516152174</v>
       </c>
       <c r="U29" t="n">
-        <v>0.3910232810786379</v>
+        <v>0.391023281078638</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,34 +33253,34 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.615198748393275</v>
+        <v>2.615198748393276</v>
       </c>
       <c r="H30" t="n">
-        <v>25.25731422790347</v>
+        <v>25.25731422790348</v>
       </c>
       <c r="I30" t="n">
-        <v>90.04083410038251</v>
+        <v>90.04083410038253</v>
       </c>
       <c r="J30" t="n">
         <v>247.0789308734191</v>
       </c>
       <c r="K30" t="n">
-        <v>422.2972470157684</v>
+        <v>422.2972470157686</v>
       </c>
       <c r="L30" t="n">
-        <v>567.8307633298645</v>
+        <v>567.8307633298646</v>
       </c>
       <c r="M30" t="n">
-        <v>662.6317179591205</v>
+        <v>662.6317179591206</v>
       </c>
       <c r="N30" t="n">
-        <v>680.1696078112843</v>
+        <v>680.1696078112844</v>
       </c>
       <c r="O30" t="n">
-        <v>622.2223092284648</v>
+        <v>622.222309228465</v>
       </c>
       <c r="P30" t="n">
-        <v>255.9367888286922</v>
+        <v>255.9367888286917</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>48.57616973441014</v>
+        <v>48.57616973441015</v>
       </c>
       <c r="T30" t="n">
         <v>10.54108618321675</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1720525492363997</v>
+        <v>0.1720525492363998</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33338,7 +33338,7 @@
         <v>19.49327177512469</v>
       </c>
       <c r="I31" t="n">
-        <v>65.93429757884708</v>
+        <v>65.93429757884709</v>
       </c>
       <c r="J31" t="n">
         <v>155.0093809766305</v>
@@ -33347,31 +33347,31 @@
         <v>254.7280299448807</v>
       </c>
       <c r="L31" t="n">
-        <v>325.9641785382301</v>
+        <v>325.9641785382302</v>
       </c>
       <c r="M31" t="n">
-        <v>343.6835227182768</v>
+        <v>343.6835227182769</v>
       </c>
       <c r="N31" t="n">
         <v>335.5114967184805</v>
       </c>
       <c r="O31" t="n">
-        <v>309.8991713288738</v>
+        <v>309.8991713288739</v>
       </c>
       <c r="P31" t="n">
-        <v>265.1722778080353</v>
+        <v>265.1722778080354</v>
       </c>
       <c r="Q31" t="n">
-        <v>183.5915402051875</v>
+        <v>183.5915402051876</v>
       </c>
       <c r="R31" t="n">
-        <v>98.58253803657119</v>
+        <v>98.58253803657121</v>
       </c>
       <c r="S31" t="n">
-        <v>38.20920449173209</v>
+        <v>38.2092044917321</v>
       </c>
       <c r="T31" t="n">
-        <v>9.367932243669321</v>
+        <v>9.367932243669323</v>
       </c>
       <c r="U31" t="n">
         <v>0.1195906243872681</v>
@@ -33411,10 +33411,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.887791013482975</v>
+        <v>4.887791013482977</v>
       </c>
       <c r="H32" t="n">
-        <v>50.05708971683253</v>
+        <v>50.05708971683254</v>
       </c>
       <c r="I32" t="n">
         <v>188.4365630473026</v>
@@ -33423,37 +33423,37 @@
         <v>414.8451525306011</v>
       </c>
       <c r="K32" t="n">
-        <v>621.7453461313355</v>
+        <v>621.7453461313356</v>
       </c>
       <c r="L32" t="n">
-        <v>771.3300803602152</v>
+        <v>771.3300803602154</v>
       </c>
       <c r="M32" t="n">
-        <v>858.2533337962431</v>
+        <v>858.2533337962433</v>
       </c>
       <c r="N32" t="n">
-        <v>872.1407700133017</v>
+        <v>872.1407700133018</v>
       </c>
       <c r="O32" t="n">
-        <v>823.5377981229802</v>
+        <v>823.5377981229805</v>
       </c>
       <c r="P32" t="n">
-        <v>702.8704574776192</v>
+        <v>702.8704574776193</v>
       </c>
       <c r="Q32" t="n">
-        <v>527.82644180726</v>
+        <v>527.8264418072602</v>
       </c>
       <c r="R32" t="n">
-        <v>307.0327022507002</v>
+        <v>307.0327022507003</v>
       </c>
       <c r="S32" t="n">
         <v>111.3805377197434</v>
       </c>
       <c r="T32" t="n">
-        <v>21.39630516152173</v>
+        <v>21.39630516152174</v>
       </c>
       <c r="U32" t="n">
-        <v>0.3910232810786379</v>
+        <v>0.391023281078638</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,34 +33490,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.615198748393275</v>
+        <v>2.615198748393276</v>
       </c>
       <c r="H33" t="n">
-        <v>25.25731422790347</v>
+        <v>25.25731422790348</v>
       </c>
       <c r="I33" t="n">
-        <v>90.04083410038251</v>
+        <v>90.04083410038253</v>
       </c>
       <c r="J33" t="n">
         <v>247.0789308734191</v>
       </c>
       <c r="K33" t="n">
-        <v>422.2972470157684</v>
+        <v>422.2972470157686</v>
       </c>
       <c r="L33" t="n">
-        <v>567.8307633298645</v>
+        <v>567.8307633298646</v>
       </c>
       <c r="M33" t="n">
-        <v>662.6317179591205</v>
+        <v>662.6317179591206</v>
       </c>
       <c r="N33" t="n">
-        <v>680.1696078112843</v>
+        <v>680.1696078112844</v>
       </c>
       <c r="O33" t="n">
-        <v>622.2223092284648</v>
+        <v>622.222309228465</v>
       </c>
       <c r="P33" t="n">
-        <v>255.9367888286922</v>
+        <v>255.9367888286917</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>48.57616973441014</v>
+        <v>48.57616973441015</v>
       </c>
       <c r="T33" t="n">
         <v>10.54108618321675</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1720525492363997</v>
+        <v>0.1720525492363998</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33575,7 +33575,7 @@
         <v>19.49327177512469</v>
       </c>
       <c r="I34" t="n">
-        <v>65.93429757884708</v>
+        <v>65.93429757884709</v>
       </c>
       <c r="J34" t="n">
         <v>155.0093809766305</v>
@@ -33584,31 +33584,31 @@
         <v>254.7280299448807</v>
       </c>
       <c r="L34" t="n">
-        <v>325.9641785382301</v>
+        <v>325.9641785382302</v>
       </c>
       <c r="M34" t="n">
-        <v>343.6835227182768</v>
+        <v>343.6835227182769</v>
       </c>
       <c r="N34" t="n">
         <v>335.5114967184805</v>
       </c>
       <c r="O34" t="n">
-        <v>309.8991713288738</v>
+        <v>309.8991713288739</v>
       </c>
       <c r="P34" t="n">
-        <v>265.1722778080353</v>
+        <v>265.1722778080354</v>
       </c>
       <c r="Q34" t="n">
-        <v>183.5915402051875</v>
+        <v>183.5915402051876</v>
       </c>
       <c r="R34" t="n">
-        <v>98.58253803657119</v>
+        <v>98.58253803657121</v>
       </c>
       <c r="S34" t="n">
-        <v>38.20920449173209</v>
+        <v>38.2092044917321</v>
       </c>
       <c r="T34" t="n">
-        <v>9.367932243669321</v>
+        <v>9.367932243669323</v>
       </c>
       <c r="U34" t="n">
         <v>0.1195906243872681</v>
@@ -33648,10 +33648,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.887791013482975</v>
+        <v>4.887791013482977</v>
       </c>
       <c r="H35" t="n">
-        <v>50.05708971683253</v>
+        <v>50.05708971683254</v>
       </c>
       <c r="I35" t="n">
         <v>188.4365630473026</v>
@@ -33660,37 +33660,37 @@
         <v>414.8451525306011</v>
       </c>
       <c r="K35" t="n">
-        <v>621.7453461313355</v>
+        <v>621.7453461313356</v>
       </c>
       <c r="L35" t="n">
-        <v>771.3300803602152</v>
+        <v>771.3300803602154</v>
       </c>
       <c r="M35" t="n">
-        <v>858.2533337962431</v>
+        <v>858.2533337962433</v>
       </c>
       <c r="N35" t="n">
-        <v>872.1407700133017</v>
+        <v>872.1407700133018</v>
       </c>
       <c r="O35" t="n">
-        <v>823.5377981229802</v>
+        <v>823.5377981229805</v>
       </c>
       <c r="P35" t="n">
-        <v>702.8704574776192</v>
+        <v>702.8704574776193</v>
       </c>
       <c r="Q35" t="n">
-        <v>527.82644180726</v>
+        <v>527.8264418072602</v>
       </c>
       <c r="R35" t="n">
-        <v>307.0327022507002</v>
+        <v>307.0327022507003</v>
       </c>
       <c r="S35" t="n">
         <v>111.3805377197434</v>
       </c>
       <c r="T35" t="n">
-        <v>21.39630516152173</v>
+        <v>21.39630516152174</v>
       </c>
       <c r="U35" t="n">
-        <v>0.3910232810786379</v>
+        <v>0.391023281078638</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,34 +33727,34 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.615198748393275</v>
+        <v>2.615198748393276</v>
       </c>
       <c r="H36" t="n">
-        <v>25.25731422790347</v>
+        <v>25.25731422790348</v>
       </c>
       <c r="I36" t="n">
-        <v>90.04083410038251</v>
+        <v>90.04083410038253</v>
       </c>
       <c r="J36" t="n">
         <v>247.0789308734191</v>
       </c>
       <c r="K36" t="n">
-        <v>422.2972470157684</v>
+        <v>422.2972470157686</v>
       </c>
       <c r="L36" t="n">
-        <v>567.8307633298645</v>
+        <v>567.8307633298646</v>
       </c>
       <c r="M36" t="n">
-        <v>662.6317179591205</v>
+        <v>662.6317179591206</v>
       </c>
       <c r="N36" t="n">
-        <v>680.1696078112843</v>
+        <v>680.1696078112844</v>
       </c>
       <c r="O36" t="n">
-        <v>622.2223092284648</v>
+        <v>622.222309228465</v>
       </c>
       <c r="P36" t="n">
-        <v>255.9367888286922</v>
+        <v>255.9367888286917</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>48.57616973441014</v>
+        <v>48.57616973441015</v>
       </c>
       <c r="T36" t="n">
         <v>10.54108618321675</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1720525492363997</v>
+        <v>0.1720525492363998</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33812,7 +33812,7 @@
         <v>19.49327177512469</v>
       </c>
       <c r="I37" t="n">
-        <v>65.93429757884708</v>
+        <v>65.93429757884709</v>
       </c>
       <c r="J37" t="n">
         <v>155.0093809766305</v>
@@ -33821,31 +33821,31 @@
         <v>254.7280299448807</v>
       </c>
       <c r="L37" t="n">
-        <v>325.9641785382301</v>
+        <v>325.9641785382302</v>
       </c>
       <c r="M37" t="n">
-        <v>343.6835227182768</v>
+        <v>343.6835227182769</v>
       </c>
       <c r="N37" t="n">
         <v>335.5114967184805</v>
       </c>
       <c r="O37" t="n">
-        <v>309.8991713288738</v>
+        <v>309.8991713288739</v>
       </c>
       <c r="P37" t="n">
-        <v>265.1722778080353</v>
+        <v>265.1722778080354</v>
       </c>
       <c r="Q37" t="n">
-        <v>183.5915402051875</v>
+        <v>183.5915402051876</v>
       </c>
       <c r="R37" t="n">
-        <v>98.58253803657119</v>
+        <v>98.58253803657121</v>
       </c>
       <c r="S37" t="n">
-        <v>38.20920449173209</v>
+        <v>38.2092044917321</v>
       </c>
       <c r="T37" t="n">
-        <v>9.367932243669321</v>
+        <v>9.367932243669323</v>
       </c>
       <c r="U37" t="n">
         <v>0.1195906243872681</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.887791013482974</v>
+        <v>4.887791013482977</v>
       </c>
       <c r="H38" t="n">
-        <v>50.05708971683252</v>
+        <v>50.05708971683255</v>
       </c>
       <c r="I38" t="n">
-        <v>188.4365630473025</v>
+        <v>188.4365630473027</v>
       </c>
       <c r="J38" t="n">
-        <v>414.845152530601</v>
+        <v>414.8451525306012</v>
       </c>
       <c r="K38" t="n">
-        <v>621.7453461313354</v>
+        <v>621.7453461313357</v>
       </c>
       <c r="L38" t="n">
-        <v>771.3300803602151</v>
+        <v>771.3300803602156</v>
       </c>
       <c r="M38" t="n">
-        <v>858.2533337962429</v>
+        <v>858.2533337962434</v>
       </c>
       <c r="N38" t="n">
-        <v>872.1407700133016</v>
+        <v>872.140770013302</v>
       </c>
       <c r="O38" t="n">
-        <v>823.5377981229801</v>
+        <v>823.5377981229806</v>
       </c>
       <c r="P38" t="n">
-        <v>702.8704574776191</v>
+        <v>702.8704574776195</v>
       </c>
       <c r="Q38" t="n">
-        <v>527.8264418072599</v>
+        <v>527.8264418072602</v>
       </c>
       <c r="R38" t="n">
-        <v>307.0327022507001</v>
+        <v>307.0327022507003</v>
       </c>
       <c r="S38" t="n">
         <v>111.3805377197434</v>
       </c>
       <c r="T38" t="n">
-        <v>21.39630516152173</v>
+        <v>21.39630516152174</v>
       </c>
       <c r="U38" t="n">
-        <v>0.3910232810786379</v>
+        <v>0.3910232810786381</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,34 +33964,34 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.615198748393274</v>
+        <v>2.615198748393276</v>
       </c>
       <c r="H39" t="n">
-        <v>25.25731422790347</v>
+        <v>25.25731422790349</v>
       </c>
       <c r="I39" t="n">
-        <v>90.0408341003825</v>
+        <v>90.04083410038254</v>
       </c>
       <c r="J39" t="n">
-        <v>247.078930873419</v>
+        <v>247.0789308734192</v>
       </c>
       <c r="K39" t="n">
-        <v>422.2972470157684</v>
+        <v>422.2972470157686</v>
       </c>
       <c r="L39" t="n">
-        <v>567.8307633298643</v>
+        <v>567.8307633298647</v>
       </c>
       <c r="M39" t="n">
-        <v>662.6317179591204</v>
+        <v>662.6317179591208</v>
       </c>
       <c r="N39" t="n">
-        <v>680.1696078112842</v>
+        <v>680.1696078112845</v>
       </c>
       <c r="O39" t="n">
-        <v>622.2223092284647</v>
+        <v>622.2223092284651</v>
       </c>
       <c r="P39" t="n">
-        <v>255.9367888286931</v>
+        <v>255.9367888286908</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>48.57616973441014</v>
+        <v>48.57616973441016</v>
       </c>
       <c r="T39" t="n">
         <v>10.54108618321675</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1720525492363997</v>
+        <v>0.1720525492363998</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,43 +34046,43 @@
         <v>2.192494780433246</v>
       </c>
       <c r="H40" t="n">
-        <v>19.49327177512469</v>
+        <v>19.4932717751247</v>
       </c>
       <c r="I40" t="n">
-        <v>65.93429757884708</v>
+        <v>65.93429757884711</v>
       </c>
       <c r="J40" t="n">
-        <v>155.0093809766304</v>
+        <v>155.0093809766305</v>
       </c>
       <c r="K40" t="n">
-        <v>254.7280299448806</v>
+        <v>254.7280299448808</v>
       </c>
       <c r="L40" t="n">
-        <v>325.96417853823</v>
+        <v>325.9641785382302</v>
       </c>
       <c r="M40" t="n">
-        <v>343.6835227182768</v>
+        <v>343.6835227182769</v>
       </c>
       <c r="N40" t="n">
-        <v>335.5114967184804</v>
+        <v>335.5114967184806</v>
       </c>
       <c r="O40" t="n">
-        <v>309.8991713288738</v>
+        <v>309.8991713288739</v>
       </c>
       <c r="P40" t="n">
-        <v>265.1722778080353</v>
+        <v>265.1722778080355</v>
       </c>
       <c r="Q40" t="n">
-        <v>183.5915402051875</v>
+        <v>183.5915402051876</v>
       </c>
       <c r="R40" t="n">
-        <v>98.58253803657118</v>
+        <v>98.58253803657122</v>
       </c>
       <c r="S40" t="n">
-        <v>38.20920449173209</v>
+        <v>38.20920449173211</v>
       </c>
       <c r="T40" t="n">
-        <v>9.367932243669319</v>
+        <v>9.367932243669324</v>
       </c>
       <c r="U40" t="n">
         <v>0.1195906243872681</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.887791013482974</v>
+        <v>4.887791013482977</v>
       </c>
       <c r="H41" t="n">
-        <v>50.05708971683252</v>
+        <v>50.05708971683254</v>
       </c>
       <c r="I41" t="n">
-        <v>188.4365630473025</v>
+        <v>188.4365630473026</v>
       </c>
       <c r="J41" t="n">
-        <v>414.845152530601</v>
+        <v>414.8451525306011</v>
       </c>
       <c r="K41" t="n">
-        <v>621.7453461313354</v>
+        <v>621.7453461313356</v>
       </c>
       <c r="L41" t="n">
-        <v>771.3300803602151</v>
+        <v>771.3300803602154</v>
       </c>
       <c r="M41" t="n">
-        <v>858.2533337962429</v>
+        <v>858.2533337962433</v>
       </c>
       <c r="N41" t="n">
-        <v>872.1407700133016</v>
+        <v>872.1407700133018</v>
       </c>
       <c r="O41" t="n">
-        <v>823.5377981229801</v>
+        <v>823.5377981229805</v>
       </c>
       <c r="P41" t="n">
-        <v>702.8704574776191</v>
+        <v>702.8704574776193</v>
       </c>
       <c r="Q41" t="n">
-        <v>527.8264418072599</v>
+        <v>527.8264418072602</v>
       </c>
       <c r="R41" t="n">
-        <v>307.0327022507001</v>
+        <v>307.0327022507003</v>
       </c>
       <c r="S41" t="n">
         <v>111.3805377197434</v>
       </c>
       <c r="T41" t="n">
-        <v>21.39630516152173</v>
+        <v>21.39630516152174</v>
       </c>
       <c r="U41" t="n">
-        <v>0.3910232810786379</v>
+        <v>0.391023281078638</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,34 +34201,34 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.615198748393274</v>
+        <v>2.615198748393276</v>
       </c>
       <c r="H42" t="n">
-        <v>25.25731422790347</v>
+        <v>25.25731422790348</v>
       </c>
       <c r="I42" t="n">
-        <v>90.0408341003825</v>
+        <v>90.04083410038253</v>
       </c>
       <c r="J42" t="n">
-        <v>247.078930873419</v>
+        <v>247.0789308734191</v>
       </c>
       <c r="K42" t="n">
-        <v>422.2972470157684</v>
+        <v>178.8457766008353</v>
       </c>
       <c r="L42" t="n">
-        <v>567.8307633298643</v>
+        <v>567.8307633298646</v>
       </c>
       <c r="M42" t="n">
-        <v>662.6317179591204</v>
+        <v>662.6317179591206</v>
       </c>
       <c r="N42" t="n">
-        <v>680.1696078112842</v>
+        <v>680.1696078112844</v>
       </c>
       <c r="O42" t="n">
-        <v>622.2223092284647</v>
+        <v>622.222309228465</v>
       </c>
       <c r="P42" t="n">
-        <v>255.9367888286931</v>
+        <v>499.3882592436248</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>48.57616973441014</v>
+        <v>48.57616973441015</v>
       </c>
       <c r="T42" t="n">
         <v>10.54108618321675</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1720525492363997</v>
+        <v>0.1720525492363998</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34286,40 +34286,40 @@
         <v>19.49327177512469</v>
       </c>
       <c r="I43" t="n">
-        <v>65.93429757884708</v>
+        <v>65.93429757884709</v>
       </c>
       <c r="J43" t="n">
-        <v>155.0093809766304</v>
+        <v>155.0093809766305</v>
       </c>
       <c r="K43" t="n">
-        <v>254.7280299448806</v>
+        <v>254.7280299448807</v>
       </c>
       <c r="L43" t="n">
-        <v>325.96417853823</v>
+        <v>325.9641785382302</v>
       </c>
       <c r="M43" t="n">
-        <v>343.6835227182768</v>
+        <v>343.6835227182769</v>
       </c>
       <c r="N43" t="n">
-        <v>335.5114967184804</v>
+        <v>335.5114967184805</v>
       </c>
       <c r="O43" t="n">
-        <v>309.8991713288738</v>
+        <v>309.8991713288739</v>
       </c>
       <c r="P43" t="n">
-        <v>265.1722778080353</v>
+        <v>265.1722778080354</v>
       </c>
       <c r="Q43" t="n">
-        <v>183.5915402051875</v>
+        <v>183.5915402051876</v>
       </c>
       <c r="R43" t="n">
-        <v>98.58253803657118</v>
+        <v>98.58253803657121</v>
       </c>
       <c r="S43" t="n">
-        <v>38.20920449173209</v>
+        <v>38.2092044917321</v>
       </c>
       <c r="T43" t="n">
-        <v>9.367932243669319</v>
+        <v>9.367932243669323</v>
       </c>
       <c r="U43" t="n">
         <v>0.1195906243872681</v>
@@ -34359,40 +34359,40 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.887791013482974</v>
+        <v>4.887791013482975</v>
       </c>
       <c r="H44" t="n">
-        <v>50.05708971683252</v>
+        <v>50.05708971683253</v>
       </c>
       <c r="I44" t="n">
-        <v>188.4365630473025</v>
+        <v>188.4365630473026</v>
       </c>
       <c r="J44" t="n">
-        <v>414.845152530601</v>
+        <v>414.8451525306011</v>
       </c>
       <c r="K44" t="n">
-        <v>621.7453461313354</v>
+        <v>621.7453461313355</v>
       </c>
       <c r="L44" t="n">
-        <v>771.3300803602151</v>
+        <v>771.3300803602152</v>
       </c>
       <c r="M44" t="n">
-        <v>858.2533337962429</v>
+        <v>858.2533337962431</v>
       </c>
       <c r="N44" t="n">
-        <v>872.1407700133016</v>
+        <v>872.1407700133017</v>
       </c>
       <c r="O44" t="n">
-        <v>823.5377981229801</v>
+        <v>823.5377981229802</v>
       </c>
       <c r="P44" t="n">
-        <v>702.8704574776191</v>
+        <v>702.8704574776192</v>
       </c>
       <c r="Q44" t="n">
-        <v>527.8264418072599</v>
+        <v>527.82644180726</v>
       </c>
       <c r="R44" t="n">
-        <v>307.0327022507001</v>
+        <v>307.0327022507002</v>
       </c>
       <c r="S44" t="n">
         <v>111.3805377197434</v>
@@ -34438,34 +34438,34 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.615198748393274</v>
+        <v>2.615198748393275</v>
       </c>
       <c r="H45" t="n">
         <v>25.25731422790347</v>
       </c>
       <c r="I45" t="n">
-        <v>90.0408341003825</v>
+        <v>90.04083410038251</v>
       </c>
       <c r="J45" t="n">
-        <v>247.078930873419</v>
+        <v>247.0789308734191</v>
       </c>
       <c r="K45" t="n">
         <v>422.2972470157684</v>
       </c>
       <c r="L45" t="n">
-        <v>567.8307633298643</v>
+        <v>567.8307633298645</v>
       </c>
       <c r="M45" t="n">
-        <v>662.6317179591204</v>
+        <v>662.6317179591205</v>
       </c>
       <c r="N45" t="n">
-        <v>680.1696078112842</v>
+        <v>680.1696078112843</v>
       </c>
       <c r="O45" t="n">
-        <v>622.2223092284647</v>
+        <v>622.2223092284648</v>
       </c>
       <c r="P45" t="n">
-        <v>255.9367888286931</v>
+        <v>255.9367888286922</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34526,19 +34526,19 @@
         <v>65.93429757884708</v>
       </c>
       <c r="J46" t="n">
-        <v>155.0093809766304</v>
+        <v>155.0093809766305</v>
       </c>
       <c r="K46" t="n">
-        <v>254.7280299448806</v>
+        <v>254.7280299448807</v>
       </c>
       <c r="L46" t="n">
-        <v>325.96417853823</v>
+        <v>325.9641785382301</v>
       </c>
       <c r="M46" t="n">
         <v>343.6835227182768</v>
       </c>
       <c r="N46" t="n">
-        <v>335.5114967184804</v>
+        <v>335.5114967184805</v>
       </c>
       <c r="O46" t="n">
         <v>309.8991713288738</v>
@@ -34550,13 +34550,13 @@
         <v>183.5915402051875</v>
       </c>
       <c r="R46" t="n">
-        <v>98.58253803657118</v>
+        <v>98.58253803657119</v>
       </c>
       <c r="S46" t="n">
         <v>38.20920449173209</v>
       </c>
       <c r="T46" t="n">
-        <v>9.367932243669319</v>
+        <v>9.367932243669321</v>
       </c>
       <c r="U46" t="n">
         <v>0.1195906243872681</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34871,13 +34871,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35108,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597692</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
@@ -35497,7 +35497,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
         <v>478.3061046004592</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597635</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -36360,28 +36360,28 @@
         <v>233.7992480039148</v>
       </c>
       <c r="K23" t="n">
-        <v>401.655495086355</v>
+        <v>401.6554950863551</v>
       </c>
       <c r="L23" t="n">
-        <v>535.5636653902279</v>
+        <v>535.5636653902282</v>
       </c>
       <c r="M23" t="n">
-        <v>627.9071005689703</v>
+        <v>627.9071005689706</v>
       </c>
       <c r="N23" t="n">
         <v>642.7277064167108</v>
       </c>
       <c r="O23" t="n">
-        <v>593.4395867012935</v>
+        <v>593.4395867012937</v>
       </c>
       <c r="P23" t="n">
-        <v>471.6374617223497</v>
+        <v>471.6374617223498</v>
       </c>
       <c r="Q23" t="n">
-        <v>305.5207519328105</v>
+        <v>305.5207519328106</v>
       </c>
       <c r="R23" t="n">
-        <v>91.44716443656807</v>
+        <v>91.44716443656813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,22 +36439,22 @@
         <v>120.2413042067524</v>
       </c>
       <c r="K24" t="n">
-        <v>284.4558080414095</v>
+        <v>284.4558080414096</v>
       </c>
       <c r="L24" t="n">
-        <v>429.2763835499903</v>
+        <v>429.2763835499904</v>
       </c>
       <c r="M24" t="n">
-        <v>520.4976840371021</v>
+        <v>520.4976840371023</v>
       </c>
       <c r="N24" t="n">
-        <v>548.827895727951</v>
+        <v>548.8278957279512</v>
       </c>
       <c r="O24" t="n">
-        <v>479.6260647840204</v>
+        <v>479.6260647840205</v>
       </c>
       <c r="P24" t="n">
-        <v>121.9623814143619</v>
+        <v>121.9623814143614</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>61.65020085995769</v>
+        <v>61.65020085995772</v>
       </c>
       <c r="K25" t="n">
-        <v>232.4585381189978</v>
+        <v>232.4585381189979</v>
       </c>
       <c r="L25" t="n">
         <v>353.5542037985463</v>
       </c>
       <c r="M25" t="n">
-        <v>383.2673996801174</v>
+        <v>383.2673996801175</v>
       </c>
       <c r="N25" t="n">
         <v>379.6436690977091</v>
       </c>
       <c r="O25" t="n">
-        <v>334.4842992429135</v>
+        <v>334.4842992429136</v>
       </c>
       <c r="P25" t="n">
-        <v>262.4508370729288</v>
+        <v>262.4508370729289</v>
       </c>
       <c r="Q25" t="n">
-        <v>97.42949695349314</v>
+        <v>97.42949695349317</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,28 +36597,28 @@
         <v>233.7992480039148</v>
       </c>
       <c r="K26" t="n">
-        <v>401.655495086355</v>
+        <v>401.6554950863551</v>
       </c>
       <c r="L26" t="n">
-        <v>535.5636653902279</v>
+        <v>535.5636653902282</v>
       </c>
       <c r="M26" t="n">
-        <v>627.9071005689703</v>
+        <v>627.9071005689706</v>
       </c>
       <c r="N26" t="n">
         <v>642.7277064167108</v>
       </c>
       <c r="O26" t="n">
-        <v>593.4395867012935</v>
+        <v>593.4395867012937</v>
       </c>
       <c r="P26" t="n">
-        <v>471.6374617223497</v>
+        <v>471.6374617223498</v>
       </c>
       <c r="Q26" t="n">
-        <v>305.5207519328105</v>
+        <v>305.5207519328106</v>
       </c>
       <c r="R26" t="n">
-        <v>91.44716443656807</v>
+        <v>91.44716443656813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,22 +36676,22 @@
         <v>120.2413042067524</v>
       </c>
       <c r="K27" t="n">
-        <v>284.4558080414095</v>
+        <v>284.4558080414096</v>
       </c>
       <c r="L27" t="n">
-        <v>429.2763835499903</v>
+        <v>429.2763835499904</v>
       </c>
       <c r="M27" t="n">
-        <v>520.4976840371021</v>
+        <v>520.4976840371023</v>
       </c>
       <c r="N27" t="n">
-        <v>548.827895727951</v>
+        <v>548.8278957279512</v>
       </c>
       <c r="O27" t="n">
-        <v>479.6260647840204</v>
+        <v>479.6260647840205</v>
       </c>
       <c r="P27" t="n">
-        <v>121.9623814143619</v>
+        <v>121.9623814143614</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>61.65020085995769</v>
+        <v>61.65020085995772</v>
       </c>
       <c r="K28" t="n">
-        <v>232.4585381189978</v>
+        <v>232.4585381189979</v>
       </c>
       <c r="L28" t="n">
         <v>353.5542037985463</v>
       </c>
       <c r="M28" t="n">
-        <v>383.2673996801174</v>
+        <v>383.2673996801175</v>
       </c>
       <c r="N28" t="n">
         <v>379.6436690977091</v>
       </c>
       <c r="O28" t="n">
-        <v>334.4842992429135</v>
+        <v>334.4842992429136</v>
       </c>
       <c r="P28" t="n">
-        <v>262.4508370729288</v>
+        <v>262.4508370729289</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.42949695349314</v>
+        <v>97.42949695349317</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,28 +36834,28 @@
         <v>233.7992480039148</v>
       </c>
       <c r="K29" t="n">
-        <v>401.655495086355</v>
+        <v>401.6554950863551</v>
       </c>
       <c r="L29" t="n">
-        <v>535.5636653902279</v>
+        <v>535.5636653902282</v>
       </c>
       <c r="M29" t="n">
-        <v>627.9071005689703</v>
+        <v>627.9071005689706</v>
       </c>
       <c r="N29" t="n">
         <v>642.7277064167108</v>
       </c>
       <c r="O29" t="n">
-        <v>593.4395867012935</v>
+        <v>593.4395867012937</v>
       </c>
       <c r="P29" t="n">
-        <v>471.6374617223497</v>
+        <v>471.6374617223498</v>
       </c>
       <c r="Q29" t="n">
-        <v>305.5207519328105</v>
+        <v>305.5207519328106</v>
       </c>
       <c r="R29" t="n">
-        <v>91.44716443656807</v>
+        <v>91.44716443656813</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,22 +36913,22 @@
         <v>120.2413042067524</v>
       </c>
       <c r="K30" t="n">
-        <v>284.4558080414095</v>
+        <v>284.4558080414096</v>
       </c>
       <c r="L30" t="n">
-        <v>429.2763835499903</v>
+        <v>429.2763835499904</v>
       </c>
       <c r="M30" t="n">
-        <v>520.4976840371021</v>
+        <v>520.4976840371023</v>
       </c>
       <c r="N30" t="n">
-        <v>548.827895727951</v>
+        <v>548.8278957279512</v>
       </c>
       <c r="O30" t="n">
-        <v>479.6260647840204</v>
+        <v>479.6260647840205</v>
       </c>
       <c r="P30" t="n">
-        <v>121.9623814143619</v>
+        <v>121.9623814143614</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>61.65020085995769</v>
+        <v>61.65020085995772</v>
       </c>
       <c r="K31" t="n">
-        <v>232.4585381189978</v>
+        <v>232.4585381189979</v>
       </c>
       <c r="L31" t="n">
         <v>353.5542037985463</v>
       </c>
       <c r="M31" t="n">
-        <v>383.2673996801174</v>
+        <v>383.2673996801175</v>
       </c>
       <c r="N31" t="n">
         <v>379.6436690977091</v>
       </c>
       <c r="O31" t="n">
-        <v>334.4842992429135</v>
+        <v>334.4842992429136</v>
       </c>
       <c r="P31" t="n">
-        <v>262.4508370729288</v>
+        <v>262.4508370729289</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.42949695349314</v>
+        <v>97.42949695349317</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,28 +37071,28 @@
         <v>233.7992480039148</v>
       </c>
       <c r="K32" t="n">
-        <v>401.655495086355</v>
+        <v>401.6554950863551</v>
       </c>
       <c r="L32" t="n">
-        <v>535.5636653902279</v>
+        <v>535.5636653902282</v>
       </c>
       <c r="M32" t="n">
-        <v>627.9071005689703</v>
+        <v>627.9071005689706</v>
       </c>
       <c r="N32" t="n">
         <v>642.7277064167108</v>
       </c>
       <c r="O32" t="n">
-        <v>593.4395867012935</v>
+        <v>593.4395867012937</v>
       </c>
       <c r="P32" t="n">
-        <v>471.6374617223497</v>
+        <v>471.6374617223498</v>
       </c>
       <c r="Q32" t="n">
-        <v>305.5207519328105</v>
+        <v>305.5207519328106</v>
       </c>
       <c r="R32" t="n">
-        <v>91.44716443656807</v>
+        <v>91.44716443656813</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,22 +37150,22 @@
         <v>120.2413042067524</v>
       </c>
       <c r="K33" t="n">
-        <v>284.4558080414095</v>
+        <v>284.4558080414096</v>
       </c>
       <c r="L33" t="n">
-        <v>429.2763835499903</v>
+        <v>429.2763835499904</v>
       </c>
       <c r="M33" t="n">
-        <v>520.4976840371021</v>
+        <v>520.4976840371023</v>
       </c>
       <c r="N33" t="n">
-        <v>548.827895727951</v>
+        <v>548.8278957279512</v>
       </c>
       <c r="O33" t="n">
-        <v>479.6260647840204</v>
+        <v>479.6260647840205</v>
       </c>
       <c r="P33" t="n">
-        <v>121.9623814143619</v>
+        <v>121.9623814143614</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>61.65020085995769</v>
+        <v>61.65020085995772</v>
       </c>
       <c r="K34" t="n">
-        <v>232.4585381189978</v>
+        <v>232.4585381189979</v>
       </c>
       <c r="L34" t="n">
         <v>353.5542037985463</v>
       </c>
       <c r="M34" t="n">
-        <v>383.2673996801174</v>
+        <v>383.2673996801175</v>
       </c>
       <c r="N34" t="n">
         <v>379.6436690977091</v>
       </c>
       <c r="O34" t="n">
-        <v>334.4842992429135</v>
+        <v>334.4842992429136</v>
       </c>
       <c r="P34" t="n">
-        <v>262.4508370729288</v>
+        <v>262.4508370729289</v>
       </c>
       <c r="Q34" t="n">
-        <v>97.42949695349314</v>
+        <v>97.42949695349317</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,28 +37308,28 @@
         <v>233.7992480039148</v>
       </c>
       <c r="K35" t="n">
-        <v>401.655495086355</v>
+        <v>401.6554950863551</v>
       </c>
       <c r="L35" t="n">
-        <v>535.5636653902279</v>
+        <v>535.5636653902282</v>
       </c>
       <c r="M35" t="n">
-        <v>627.9071005689703</v>
+        <v>627.9071005689706</v>
       </c>
       <c r="N35" t="n">
         <v>642.7277064167108</v>
       </c>
       <c r="O35" t="n">
-        <v>593.4395867012935</v>
+        <v>593.4395867012937</v>
       </c>
       <c r="P35" t="n">
-        <v>471.6374617223497</v>
+        <v>471.6374617223498</v>
       </c>
       <c r="Q35" t="n">
-        <v>305.5207519328105</v>
+        <v>305.5207519328106</v>
       </c>
       <c r="R35" t="n">
-        <v>91.44716443656807</v>
+        <v>91.44716443656813</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,22 +37387,22 @@
         <v>120.2413042067524</v>
       </c>
       <c r="K36" t="n">
-        <v>284.4558080414095</v>
+        <v>284.4558080414096</v>
       </c>
       <c r="L36" t="n">
-        <v>429.2763835499903</v>
+        <v>429.2763835499904</v>
       </c>
       <c r="M36" t="n">
-        <v>520.4976840371021</v>
+        <v>520.4976840371023</v>
       </c>
       <c r="N36" t="n">
-        <v>548.827895727951</v>
+        <v>548.8278957279512</v>
       </c>
       <c r="O36" t="n">
-        <v>479.6260647840204</v>
+        <v>479.6260647840205</v>
       </c>
       <c r="P36" t="n">
-        <v>121.9623814143619</v>
+        <v>121.9623814143614</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>61.65020085995769</v>
+        <v>61.65020085995772</v>
       </c>
       <c r="K37" t="n">
-        <v>232.4585381189978</v>
+        <v>232.4585381189979</v>
       </c>
       <c r="L37" t="n">
         <v>353.5542037985463</v>
       </c>
       <c r="M37" t="n">
-        <v>383.2673996801174</v>
+        <v>383.2673996801175</v>
       </c>
       <c r="N37" t="n">
         <v>379.6436690977091</v>
       </c>
       <c r="O37" t="n">
-        <v>334.4842992429135</v>
+        <v>334.4842992429136</v>
       </c>
       <c r="P37" t="n">
-        <v>262.4508370729288</v>
+        <v>262.4508370729289</v>
       </c>
       <c r="Q37" t="n">
-        <v>97.42949695349314</v>
+        <v>97.42949695349317</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>233.7992480039147</v>
+        <v>233.7992480039149</v>
       </c>
       <c r="K38" t="n">
-        <v>401.6554950863548</v>
+        <v>401.6554950863552</v>
       </c>
       <c r="L38" t="n">
-        <v>535.5636653902279</v>
+        <v>535.5636653902284</v>
       </c>
       <c r="M38" t="n">
-        <v>627.9071005689702</v>
+        <v>627.9071005689707</v>
       </c>
       <c r="N38" t="n">
-        <v>642.7277064167106</v>
+        <v>642.727706416711</v>
       </c>
       <c r="O38" t="n">
-        <v>593.4395867012934</v>
+        <v>593.4395867012938</v>
       </c>
       <c r="P38" t="n">
-        <v>471.6374617223495</v>
+        <v>471.63746172235</v>
       </c>
       <c r="Q38" t="n">
-        <v>305.5207519328104</v>
+        <v>305.5207519328106</v>
       </c>
       <c r="R38" t="n">
-        <v>91.44716443656802</v>
+        <v>91.44716443656819</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,25 +37621,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>120.2413042067523</v>
+        <v>120.2413042067525</v>
       </c>
       <c r="K39" t="n">
-        <v>284.4558080414094</v>
+        <v>284.4558080414096</v>
       </c>
       <c r="L39" t="n">
-        <v>429.2763835499902</v>
+        <v>429.2763835499905</v>
       </c>
       <c r="M39" t="n">
-        <v>520.4976840371021</v>
+        <v>520.4976840371025</v>
       </c>
       <c r="N39" t="n">
-        <v>548.8278957279509</v>
+        <v>548.8278957279513</v>
       </c>
       <c r="O39" t="n">
-        <v>479.6260647840203</v>
+        <v>479.6260647840206</v>
       </c>
       <c r="P39" t="n">
-        <v>121.9623814143628</v>
+        <v>121.9623814143605</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>61.65020085995766</v>
+        <v>61.65020085995775</v>
       </c>
       <c r="K40" t="n">
-        <v>232.4585381189978</v>
+        <v>232.4585381189979</v>
       </c>
       <c r="L40" t="n">
-        <v>353.5542037985462</v>
+        <v>353.5542037985464</v>
       </c>
       <c r="M40" t="n">
-        <v>383.2673996801174</v>
+        <v>383.2673996801175</v>
       </c>
       <c r="N40" t="n">
-        <v>379.643669097709</v>
+        <v>379.6436690977092</v>
       </c>
       <c r="O40" t="n">
-        <v>334.4842992429134</v>
+        <v>334.4842992429136</v>
       </c>
       <c r="P40" t="n">
-        <v>262.4508370729288</v>
+        <v>262.4508370729289</v>
       </c>
       <c r="Q40" t="n">
-        <v>97.42949695349311</v>
+        <v>97.42949695349323</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>233.7992480039147</v>
+        <v>233.7992480039148</v>
       </c>
       <c r="K41" t="n">
-        <v>401.6554950863548</v>
+        <v>401.6554950863551</v>
       </c>
       <c r="L41" t="n">
-        <v>535.5636653902279</v>
+        <v>535.5636653902282</v>
       </c>
       <c r="M41" t="n">
-        <v>627.9071005689702</v>
+        <v>627.9071005689706</v>
       </c>
       <c r="N41" t="n">
-        <v>642.7277064167106</v>
+        <v>642.7277064167108</v>
       </c>
       <c r="O41" t="n">
-        <v>593.4395867012934</v>
+        <v>593.4395867012937</v>
       </c>
       <c r="P41" t="n">
-        <v>471.6374617223495</v>
+        <v>471.6374617223498</v>
       </c>
       <c r="Q41" t="n">
-        <v>305.5207519328104</v>
+        <v>305.5207519328106</v>
       </c>
       <c r="R41" t="n">
-        <v>91.44716443656802</v>
+        <v>91.44716443656813</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,25 +37858,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>120.2413042067523</v>
+        <v>120.2413042067524</v>
       </c>
       <c r="K42" t="n">
-        <v>284.4558080414094</v>
+        <v>41.0043376264763</v>
       </c>
       <c r="L42" t="n">
-        <v>429.2763835499902</v>
+        <v>429.2763835499904</v>
       </c>
       <c r="M42" t="n">
-        <v>520.4976840371021</v>
+        <v>520.4976840371023</v>
       </c>
       <c r="N42" t="n">
-        <v>548.8278957279509</v>
+        <v>548.8278957279512</v>
       </c>
       <c r="O42" t="n">
-        <v>479.6260647840203</v>
+        <v>479.6260647840205</v>
       </c>
       <c r="P42" t="n">
-        <v>121.9623814143628</v>
+        <v>365.4138518292945</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>61.65020085995766</v>
+        <v>61.65020085995772</v>
       </c>
       <c r="K43" t="n">
-        <v>232.4585381189978</v>
+        <v>232.4585381189979</v>
       </c>
       <c r="L43" t="n">
-        <v>353.5542037985462</v>
+        <v>353.5542037985463</v>
       </c>
       <c r="M43" t="n">
-        <v>383.2673996801174</v>
+        <v>383.2673996801175</v>
       </c>
       <c r="N43" t="n">
-        <v>379.643669097709</v>
+        <v>379.6436690977091</v>
       </c>
       <c r="O43" t="n">
-        <v>334.4842992429134</v>
+        <v>334.4842992429136</v>
       </c>
       <c r="P43" t="n">
-        <v>262.4508370729288</v>
+        <v>262.4508370729289</v>
       </c>
       <c r="Q43" t="n">
-        <v>97.42949695349311</v>
+        <v>97.42949695349317</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>233.7992480039147</v>
+        <v>233.7992480039148</v>
       </c>
       <c r="K44" t="n">
-        <v>401.6554950863548</v>
+        <v>401.655495086355</v>
       </c>
       <c r="L44" t="n">
         <v>535.5636653902279</v>
       </c>
       <c r="M44" t="n">
-        <v>627.9071005689702</v>
+        <v>627.9071005689703</v>
       </c>
       <c r="N44" t="n">
-        <v>642.7277064167106</v>
+        <v>642.7277064167108</v>
       </c>
       <c r="O44" t="n">
-        <v>593.4395867012934</v>
+        <v>593.4395867012935</v>
       </c>
       <c r="P44" t="n">
-        <v>471.6374617223495</v>
+        <v>471.6374617223497</v>
       </c>
       <c r="Q44" t="n">
-        <v>305.5207519328104</v>
+        <v>305.5207519328105</v>
       </c>
       <c r="R44" t="n">
-        <v>91.44716443656802</v>
+        <v>91.44716443656807</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>120.2413042067523</v>
+        <v>120.2413042067524</v>
       </c>
       <c r="K45" t="n">
-        <v>284.4558080414094</v>
+        <v>284.4558080414095</v>
       </c>
       <c r="L45" t="n">
-        <v>429.2763835499902</v>
+        <v>429.2763835499903</v>
       </c>
       <c r="M45" t="n">
         <v>520.4976840371021</v>
       </c>
       <c r="N45" t="n">
-        <v>548.8278957279509</v>
+        <v>548.827895727951</v>
       </c>
       <c r="O45" t="n">
-        <v>479.6260647840203</v>
+        <v>479.6260647840204</v>
       </c>
       <c r="P45" t="n">
-        <v>121.9623814143628</v>
+        <v>121.9623814143619</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>61.65020085995766</v>
+        <v>61.65020085995769</v>
       </c>
       <c r="K46" t="n">
         <v>232.4585381189978</v>
       </c>
       <c r="L46" t="n">
-        <v>353.5542037985462</v>
+        <v>353.5542037985463</v>
       </c>
       <c r="M46" t="n">
         <v>383.2673996801174</v>
       </c>
       <c r="N46" t="n">
-        <v>379.643669097709</v>
+        <v>379.6436690977091</v>
       </c>
       <c r="O46" t="n">
-        <v>334.4842992429134</v>
+        <v>334.4842992429135</v>
       </c>
       <c r="P46" t="n">
         <v>262.4508370729288</v>
       </c>
       <c r="Q46" t="n">
-        <v>97.42949695349311</v>
+        <v>97.42949695349314</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
